--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B809E12D-136B-4F39-BB1C-18E14013E511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916A0BA-C214-43C0-9D90-33A6ECC8BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16356" yWindow="1560" windowWidth="21012" windowHeight="14256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17052" yWindow="2256" windowWidth="21012" windowHeight="14256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -190,28 +190,28 @@
     <t>FIXOM</t>
   </si>
   <si>
-    <t>TB_H2_DKISLBH_DKE_01</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISLBH_DKE_02</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL1_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL1_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL2_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL2_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL3_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2_DKISL3_DKW_02</t>
+    <t>TB_H2GC_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2GC_DKISL3_DKW_02</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S51" sqref="S51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +988,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13" t="str">
         <f>O4</f>
-        <v>TB_H2_DKISLBH_DKE_01</v>
+        <v>TB_H2GC_DKISLBH_DKE_01</v>
       </c>
       <c r="P5" s="13"/>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13" t="str">
         <f>O5</f>
-        <v>TB_H2_DKISLBH_DKE_01</v>
+        <v>TB_H2GC_DKISLBH_DKE_01</v>
       </c>
       <c r="P6" s="13"/>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13" t="str">
         <f>O6</f>
-        <v>TB_H2_DKISLBH_DKE_01</v>
+        <v>TB_H2GC_DKISLBH_DKE_01</v>
       </c>
       <c r="P7" s="13"/>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14" t="str">
         <f>O7</f>
-        <v>TB_H2_DKISLBH_DKE_01</v>
+        <v>TB_H2GC_DKISLBH_DKE_01</v>
       </c>
       <c r="P8" s="14"/>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="O10" t="str">
         <f>O9</f>
-        <v>TB_H2_DKISLBH_DKE_02</v>
+        <v>TB_H2GC_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O13" si="1">O10</f>
-        <v>TB_H2_DKISLBH_DKE_02</v>
+        <v>TB_H2GC_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="1"/>
-        <v>TB_H2_DKISLBH_DKE_02</v>
+        <v>TB_H2GC_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1163,7 +1163,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>TB_H2_DKISLBH_DKE_02</v>
+        <v>TB_H2GC_DKISLBH_DKE_02</v>
       </c>
       <c r="P13" s="14"/>
     </row>
@@ -1180,7 +1180,7 @@
       </c>
       <c r="J14" s="13"/>
       <c r="K14" s="13">
-        <f>I14</f>
+        <f t="shared" ref="K14:K23" si="2">I14</f>
         <v>50</v>
       </c>
       <c r="L14" s="13"/>
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13">
-        <f>I15</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L15" s="13"/>
@@ -1212,7 +1212,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="17" t="str">
         <f>O14</f>
-        <v>TB_H2_DKISL1_DKW_01</v>
+        <v>TB_H2GC_DKISL1_DKW_01</v>
       </c>
       <c r="P15" s="13"/>
     </row>
@@ -1229,15 +1229,15 @@
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
-        <f>I16</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="17" t="str">
-        <f t="shared" ref="O16:O18" si="2">O15</f>
-        <v>TB_H2_DKISL1_DKW_01</v>
+        <f t="shared" ref="O16:O18" si="3">O15</f>
+        <v>TB_H2GC_DKISL1_DKW_01</v>
       </c>
       <c r="P16" s="13"/>
     </row>
@@ -1256,15 +1256,15 @@
       </c>
       <c r="J17" s="16"/>
       <c r="K17" s="16">
-        <f>I17</f>
+        <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
       <c r="L17" s="13"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_H2_DKISL1_DKW_01</v>
+        <f t="shared" si="3"/>
+        <v>TB_H2GC_DKISL1_DKW_01</v>
       </c>
       <c r="P17" s="13"/>
     </row>
@@ -1281,15 +1281,15 @@
       </c>
       <c r="J18" s="14"/>
       <c r="K18" s="14">
-        <f>I18</f>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="L18" s="14"/>
       <c r="M18" s="14"/>
       <c r="N18" s="14"/>
       <c r="O18" s="17" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_H2_DKISL1_DKW_01</v>
+        <f t="shared" si="3"/>
+        <v>TB_H2GC_DKISL1_DKW_01</v>
       </c>
       <c r="P18" s="14"/>
     </row>
@@ -1306,7 +1306,7 @@
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13">
-        <f>I19</f>
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="L19" s="15"/>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13">
-        <f>I20</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L20" s="13"/>
@@ -1338,7 +1338,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="17" t="str">
         <f>O19</f>
-        <v>TB_H2_DKISL1_DKW_02</v>
+        <v>TB_H2GC_DKISL1_DKW_02</v>
       </c>
       <c r="P20" s="13"/>
     </row>
@@ -1355,15 +1355,15 @@
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="18">
-        <f>I21</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="17" t="str">
-        <f t="shared" ref="O21:O23" si="3">O20</f>
-        <v>TB_H2_DKISL1_DKW_02</v>
+        <f t="shared" ref="O21:O23" si="4">O20</f>
+        <v>TB_H2GC_DKISL1_DKW_02</v>
       </c>
       <c r="P21" s="13"/>
     </row>
@@ -1382,15 +1382,15 @@
       </c>
       <c r="J22" s="16"/>
       <c r="K22" s="18">
-        <f>I22</f>
+        <f t="shared" si="2"/>
         <v>0.98</v>
       </c>
       <c r="L22" s="16"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>TB_H2_DKISL1_DKW_02</v>
+        <f t="shared" si="4"/>
+        <v>TB_H2GC_DKISL1_DKW_02</v>
       </c>
       <c r="P22" s="13"/>
     </row>
@@ -1407,15 +1407,15 @@
       </c>
       <c r="J23" s="14"/>
       <c r="K23" s="14">
-        <f>I23</f>
+        <f t="shared" si="2"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="L23" s="14"/>
       <c r="M23" s="14"/>
       <c r="N23" s="14"/>
       <c r="O23" s="17" t="str">
-        <f t="shared" si="3"/>
-        <v>TB_H2_DKISL1_DKW_02</v>
+        <f t="shared" si="4"/>
+        <v>TB_H2GC_DKISL1_DKW_02</v>
       </c>
       <c r="P23" s="14"/>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13" t="str">
         <f>O24</f>
-        <v>TB_H2_DKISL2_DKW_01</v>
+        <v>TB_H2GC_DKISL2_DKW_01</v>
       </c>
       <c r="P25" s="13"/>
     </row>
@@ -1482,14 +1482,14 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="13">
-        <f t="shared" ref="L26:L28" si="4">I26</f>
+        <f t="shared" ref="L26:L28" si="5">I26</f>
         <v>0</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="13"/>
       <c r="O26" s="13" t="str">
-        <f t="shared" ref="O26:O28" si="5">O25</f>
-        <v>TB_H2_DKISL2_DKW_01</v>
+        <f t="shared" ref="O26:O28" si="6">O25</f>
+        <v>TB_H2GC_DKISL2_DKW_01</v>
       </c>
       <c r="P26" s="13"/>
     </row>
@@ -1509,14 +1509,14 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
       <c r="L27" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>0.98</v>
       </c>
       <c r="M27" s="16"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_H2_DKISL2_DKW_01</v>
+        <f t="shared" si="6"/>
+        <v>TB_H2GC_DKISL2_DKW_01</v>
       </c>
       <c r="P27" s="13"/>
     </row>
@@ -1534,14 +1534,14 @@
       <c r="J28" s="14"/>
       <c r="K28" s="14"/>
       <c r="L28" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M28" s="14"/>
       <c r="N28" s="14"/>
       <c r="O28" s="13" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_H2_DKISL2_DKW_01</v>
+        <f t="shared" si="6"/>
+        <v>TB_H2GC_DKISL2_DKW_01</v>
       </c>
       <c r="P28" s="14"/>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13" t="str">
         <f>O29</f>
-        <v>TB_H2_DKISL2_DKW_02</v>
+        <v>TB_H2GC_DKISL2_DKW_02</v>
       </c>
       <c r="P30" s="13"/>
     </row>
@@ -1608,14 +1608,14 @@
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="17">
-        <f t="shared" ref="L31:L33" si="6">I31</f>
+        <f t="shared" ref="L31:L33" si="7">I31</f>
         <v>1</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="str">
-        <f t="shared" ref="O31:O33" si="7">O30</f>
-        <v>TB_H2_DKISL2_DKW_02</v>
+        <f t="shared" ref="O31:O33" si="8">O30</f>
+        <v>TB_H2GC_DKISL2_DKW_02</v>
       </c>
       <c r="P31" s="13"/>
     </row>
@@ -1635,14 +1635,14 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.98</v>
       </c>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>TB_H2_DKISL2_DKW_02</v>
+        <f t="shared" si="8"/>
+        <v>TB_H2GC_DKISL2_DKW_02</v>
       </c>
       <c r="P32" s="13"/>
     </row>
@@ -1660,14 +1660,14 @@
       <c r="J33" s="14"/>
       <c r="K33" s="14"/>
       <c r="L33" s="17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M33" s="14"/>
       <c r="N33" s="14"/>
       <c r="O33" s="13" t="str">
-        <f t="shared" si="7"/>
-        <v>TB_H2_DKISL2_DKW_02</v>
+        <f t="shared" si="8"/>
+        <v>TB_H2GC_DKISL2_DKW_02</v>
       </c>
       <c r="P33" s="14"/>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13" t="str">
         <f>O34</f>
-        <v>TB_H2_DKISL3_DKW_01</v>
+        <v>TB_H2GC_DKISL3_DKW_01</v>
       </c>
       <c r="P35" s="13"/>
     </row>
@@ -1735,13 +1735,13 @@
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13">
-        <f t="shared" ref="M36:M38" si="8">I36</f>
+        <f t="shared" ref="M36:M38" si="9">I36</f>
         <v>0</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="13" t="str">
-        <f t="shared" ref="O36:O38" si="9">O35</f>
-        <v>TB_H2_DKISL3_DKW_01</v>
+        <f t="shared" ref="O36:O38" si="10">O35</f>
+        <v>TB_H2GC_DKISL3_DKW_01</v>
       </c>
       <c r="P36" s="13"/>
     </row>
@@ -1762,13 +1762,13 @@
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
       <c r="N37" s="13"/>
       <c r="O37" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_H2_DKISL3_DKW_01</v>
+        <f t="shared" si="10"/>
+        <v>TB_H2GC_DKISL3_DKW_01</v>
       </c>
       <c r="P37" s="13"/>
     </row>
@@ -1787,13 +1787,13 @@
       <c r="K38" s="14"/>
       <c r="L38" s="14"/>
       <c r="M38" s="13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="N38" s="14"/>
       <c r="O38" s="13" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_H2_DKISL3_DKW_01</v>
+        <f t="shared" si="10"/>
+        <v>TB_H2GC_DKISL3_DKW_01</v>
       </c>
       <c r="P38" s="14"/>
     </row>
@@ -1842,7 +1842,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13" t="str">
         <f>O39</f>
-        <v>TB_H2_DKISL3_DKW_02</v>
+        <v>TB_H2GC_DKISL3_DKW_02</v>
       </c>
       <c r="P40" s="13"/>
     </row>
@@ -1861,13 +1861,13 @@
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="17">
-        <f t="shared" ref="M41:M43" si="10">I41</f>
+        <f t="shared" ref="M41:M43" si="11">I41</f>
         <v>1</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13" t="str">
-        <f t="shared" ref="O41:O43" si="11">O40</f>
-        <v>TB_H2_DKISL3_DKW_02</v>
+        <f t="shared" ref="O41:O43" si="12">O40</f>
+        <v>TB_H2GC_DKISL3_DKW_02</v>
       </c>
       <c r="P41" s="13"/>
     </row>
@@ -1888,13 +1888,13 @@
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="17">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.98</v>
       </c>
       <c r="N42" s="13"/>
       <c r="O42" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>TB_H2_DKISL3_DKW_02</v>
+        <f t="shared" si="12"/>
+        <v>TB_H2GC_DKISL3_DKW_02</v>
       </c>
       <c r="P42" s="13"/>
     </row>
@@ -1913,13 +1913,13 @@
       <c r="K43" s="14"/>
       <c r="L43" s="14"/>
       <c r="M43" s="19">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="N43" s="14"/>
-      <c r="O43" s="13" t="str">
-        <f t="shared" si="11"/>
-        <v>TB_H2_DKISL3_DKW_02</v>
+      <c r="O43" s="14" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_H2GC_DKISL3_DKW_02</v>
       </c>
       <c r="P43" s="14"/>
     </row>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9916A0BA-C214-43C0-9D90-33A6ECC8BF4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C8939F-EA8D-4E74-9689-97EF2E304CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17052" yWindow="2256" windowWidth="21012" windowHeight="14256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -190,28 +190,28 @@
     <t>FIXOM</t>
   </si>
   <si>
-    <t>TB_H2GC_DKISLBH_DKE_01</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISLBH_DKE_02</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL1_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL1_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL2_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL2_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL3_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_H2GC_DKISL3_DKW_02</t>
+    <t>TB_H2_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_H2_DKISL3_DKW_02</t>
   </si>
 </sst>
 </file>
@@ -840,8 +840,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="S51" sqref="S51"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O40" sqref="O40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -988,7 +988,7 @@
       <c r="N5" s="13"/>
       <c r="O5" s="13" t="str">
         <f>O4</f>
-        <v>TB_H2GC_DKISLBH_DKE_01</v>
+        <v>TB_H2_DKISLBH_DKE_01</v>
       </c>
       <c r="P5" s="13"/>
     </row>
@@ -1013,7 +1013,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13" t="str">
         <f>O5</f>
-        <v>TB_H2GC_DKISLBH_DKE_01</v>
+        <v>TB_H2_DKISLBH_DKE_01</v>
       </c>
       <c r="P6" s="13"/>
     </row>
@@ -1040,7 +1040,7 @@
       <c r="N7" s="13"/>
       <c r="O7" s="13" t="str">
         <f>O6</f>
-        <v>TB_H2GC_DKISLBH_DKE_01</v>
+        <v>TB_H2_DKISLBH_DKE_01</v>
       </c>
       <c r="P7" s="13"/>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="N8" s="14"/>
       <c r="O8" s="14" t="str">
         <f>O7</f>
-        <v>TB_H2GC_DKISLBH_DKE_01</v>
+        <v>TB_H2_DKISLBH_DKE_01</v>
       </c>
       <c r="P8" s="14"/>
     </row>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="O10" t="str">
         <f>O9</f>
-        <v>TB_H2GC_DKISLBH_DKE_02</v>
+        <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.3">
@@ -1119,7 +1119,7 @@
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O13" si="1">O10</f>
-        <v>TB_H2GC_DKISLBH_DKE_02</v>
+        <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" si="1"/>
-        <v>TB_H2GC_DKISLBH_DKE_02</v>
+        <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1163,7 +1163,7 @@
       <c r="N13" s="14"/>
       <c r="O13" s="14" t="str">
         <f t="shared" si="1"/>
-        <v>TB_H2GC_DKISLBH_DKE_02</v>
+        <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
       <c r="P13" s="14"/>
     </row>
@@ -1212,7 +1212,7 @@
       <c r="N15" s="13"/>
       <c r="O15" s="17" t="str">
         <f>O14</f>
-        <v>TB_H2GC_DKISL1_DKW_01</v>
+        <v>TB_H2_DKISL1_DKW_01</v>
       </c>
       <c r="P15" s="13"/>
     </row>
@@ -1237,7 +1237,7 @@
       <c r="N16" s="13"/>
       <c r="O16" s="17" t="str">
         <f t="shared" ref="O16:O18" si="3">O15</f>
-        <v>TB_H2GC_DKISL1_DKW_01</v>
+        <v>TB_H2_DKISL1_DKW_01</v>
       </c>
       <c r="P16" s="13"/>
     </row>
@@ -1264,7 +1264,7 @@
       <c r="N17" s="13"/>
       <c r="O17" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>TB_H2GC_DKISL1_DKW_01</v>
+        <v>TB_H2_DKISL1_DKW_01</v>
       </c>
       <c r="P17" s="13"/>
     </row>
@@ -1289,7 +1289,7 @@
       <c r="N18" s="14"/>
       <c r="O18" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>TB_H2GC_DKISL1_DKW_01</v>
+        <v>TB_H2_DKISL1_DKW_01</v>
       </c>
       <c r="P18" s="14"/>
     </row>
@@ -1338,7 +1338,7 @@
       <c r="N20" s="13"/>
       <c r="O20" s="17" t="str">
         <f>O19</f>
-        <v>TB_H2GC_DKISL1_DKW_02</v>
+        <v>TB_H2_DKISL1_DKW_02</v>
       </c>
       <c r="P20" s="13"/>
     </row>
@@ -1363,7 +1363,7 @@
       <c r="N21" s="13"/>
       <c r="O21" s="17" t="str">
         <f t="shared" ref="O21:O23" si="4">O20</f>
-        <v>TB_H2GC_DKISL1_DKW_02</v>
+        <v>TB_H2_DKISL1_DKW_02</v>
       </c>
       <c r="P21" s="13"/>
     </row>
@@ -1390,7 +1390,7 @@
       <c r="N22" s="13"/>
       <c r="O22" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>TB_H2GC_DKISL1_DKW_02</v>
+        <v>TB_H2_DKISL1_DKW_02</v>
       </c>
       <c r="P22" s="13"/>
     </row>
@@ -1415,7 +1415,7 @@
       <c r="N23" s="14"/>
       <c r="O23" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>TB_H2GC_DKISL1_DKW_02</v>
+        <v>TB_H2_DKISL1_DKW_02</v>
       </c>
       <c r="P23" s="14"/>
     </row>
@@ -1464,7 +1464,7 @@
       <c r="N25" s="13"/>
       <c r="O25" s="13" t="str">
         <f>O24</f>
-        <v>TB_H2GC_DKISL2_DKW_01</v>
+        <v>TB_H2_DKISL2_DKW_01</v>
       </c>
       <c r="P25" s="13"/>
     </row>
@@ -1489,7 +1489,7 @@
       <c r="N26" s="13"/>
       <c r="O26" s="13" t="str">
         <f t="shared" ref="O26:O28" si="6">O25</f>
-        <v>TB_H2GC_DKISL2_DKW_01</v>
+        <v>TB_H2_DKISL2_DKW_01</v>
       </c>
       <c r="P26" s="13"/>
     </row>
@@ -1516,7 +1516,7 @@
       <c r="N27" s="13"/>
       <c r="O27" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>TB_H2GC_DKISL2_DKW_01</v>
+        <v>TB_H2_DKISL2_DKW_01</v>
       </c>
       <c r="P27" s="13"/>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="N28" s="14"/>
       <c r="O28" s="13" t="str">
         <f t="shared" si="6"/>
-        <v>TB_H2GC_DKISL2_DKW_01</v>
+        <v>TB_H2_DKISL2_DKW_01</v>
       </c>
       <c r="P28" s="14"/>
     </row>
@@ -1590,7 +1590,7 @@
       <c r="N30" s="13"/>
       <c r="O30" s="13" t="str">
         <f>O29</f>
-        <v>TB_H2GC_DKISL2_DKW_02</v>
+        <v>TB_H2_DKISL2_DKW_02</v>
       </c>
       <c r="P30" s="13"/>
     </row>
@@ -1615,7 +1615,7 @@
       <c r="N31" s="13"/>
       <c r="O31" s="13" t="str">
         <f t="shared" ref="O31:O33" si="8">O30</f>
-        <v>TB_H2GC_DKISL2_DKW_02</v>
+        <v>TB_H2_DKISL2_DKW_02</v>
       </c>
       <c r="P31" s="13"/>
     </row>
@@ -1642,7 +1642,7 @@
       <c r="N32" s="13"/>
       <c r="O32" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>TB_H2GC_DKISL2_DKW_02</v>
+        <v>TB_H2_DKISL2_DKW_02</v>
       </c>
       <c r="P32" s="13"/>
     </row>
@@ -1667,7 +1667,7 @@
       <c r="N33" s="14"/>
       <c r="O33" s="13" t="str">
         <f t="shared" si="8"/>
-        <v>TB_H2GC_DKISL2_DKW_02</v>
+        <v>TB_H2_DKISL2_DKW_02</v>
       </c>
       <c r="P33" s="14"/>
     </row>
@@ -1716,7 +1716,7 @@
       <c r="N35" s="13"/>
       <c r="O35" s="13" t="str">
         <f>O34</f>
-        <v>TB_H2GC_DKISL3_DKW_01</v>
+        <v>TB_H2_DKISL3_DKW_01</v>
       </c>
       <c r="P35" s="13"/>
     </row>
@@ -1741,7 +1741,7 @@
       <c r="N36" s="13"/>
       <c r="O36" s="13" t="str">
         <f t="shared" ref="O36:O38" si="10">O35</f>
-        <v>TB_H2GC_DKISL3_DKW_01</v>
+        <v>TB_H2_DKISL3_DKW_01</v>
       </c>
       <c r="P36" s="13"/>
     </row>
@@ -1768,7 +1768,7 @@
       <c r="N37" s="13"/>
       <c r="O37" s="13" t="str">
         <f t="shared" si="10"/>
-        <v>TB_H2GC_DKISL3_DKW_01</v>
+        <v>TB_H2_DKISL3_DKW_01</v>
       </c>
       <c r="P37" s="13"/>
     </row>
@@ -1793,7 +1793,7 @@
       <c r="N38" s="14"/>
       <c r="O38" s="13" t="str">
         <f t="shared" si="10"/>
-        <v>TB_H2GC_DKISL3_DKW_01</v>
+        <v>TB_H2_DKISL3_DKW_01</v>
       </c>
       <c r="P38" s="14"/>
     </row>
@@ -1842,7 +1842,7 @@
       <c r="N40" s="13"/>
       <c r="O40" s="13" t="str">
         <f>O39</f>
-        <v>TB_H2GC_DKISL3_DKW_02</v>
+        <v>TB_H2_DKISL3_DKW_02</v>
       </c>
       <c r="P40" s="13"/>
     </row>
@@ -1867,7 +1867,7 @@
       <c r="N41" s="13"/>
       <c r="O41" s="13" t="str">
         <f t="shared" ref="O41:O43" si="12">O40</f>
-        <v>TB_H2GC_DKISL3_DKW_02</v>
+        <v>TB_H2_DKISL3_DKW_02</v>
       </c>
       <c r="P41" s="13"/>
     </row>
@@ -1894,7 +1894,7 @@
       <c r="N42" s="13"/>
       <c r="O42" s="13" t="str">
         <f t="shared" si="12"/>
-        <v>TB_H2GC_DKISL3_DKW_02</v>
+        <v>TB_H2_DKISL3_DKW_02</v>
       </c>
       <c r="P42" s="13"/>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="N43" s="14"/>
       <c r="O43" s="14" t="str">
         <f t="shared" si="12"/>
-        <v>TB_H2GC_DKISL3_DKW_02</v>
+        <v>TB_H2_DKISL3_DKW_02</v>
       </c>
       <c r="P43" s="14"/>
     </row>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4C8939F-EA8D-4E74-9689-97EF2E304CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19562213-9A1B-40EE-88E3-A8DE8FB8FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="17052" yWindow="2256" windowWidth="21012" windowHeight="14256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -428,6 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -841,7 +842,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O40" sqref="O40"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -975,12 +976,12 @@
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
       <c r="H5" s="13">
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="I5" s="13"/>
       <c r="J5" s="13">
         <f>H5</f>
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="K5" s="13"/>
       <c r="L5" s="13"/>
@@ -1000,12 +1001,12 @@
       <c r="F6" s="13"/>
       <c r="G6" s="13"/>
       <c r="H6" s="13">
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="I6" s="13"/>
       <c r="J6" s="13">
         <f t="shared" ref="J6:J8" si="0">H6</f>
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="K6" s="13"/>
       <c r="L6" s="13"/>
@@ -1075,12 +1076,12 @@
       </c>
       <c r="E9" s="11"/>
       <c r="H9" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="11">
         <f>H9</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="O9" t="s">
         <v>36</v>
@@ -1092,12 +1093,12 @@
       </c>
       <c r="E10" s="13"/>
       <c r="H10" s="17">
-        <v>1</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="I10" s="13"/>
       <c r="J10" s="13">
         <f>H10</f>
-        <v>1</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="O10" t="str">
         <f>O9</f>
@@ -1109,13 +1110,13 @@
         <v>34</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="H11" s="17">
-        <v>1</v>
+      <c r="H11" s="20">
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="I11" s="13"/>
       <c r="J11" s="17">
         <f>H11</f>
-        <v>1</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="O11" t="str">
         <f t="shared" ref="O11:O13" si="1">O10</f>
@@ -1200,12 +1201,12 @@
       <c r="G15" s="13"/>
       <c r="H15" s="13"/>
       <c r="I15" s="13">
-        <v>0</v>
+        <v>0.29830000000000001</v>
       </c>
       <c r="J15" s="13"/>
       <c r="K15" s="13">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.29830000000000001</v>
       </c>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
@@ -1225,12 +1226,12 @@
       <c r="G16" s="13"/>
       <c r="H16" s="13"/>
       <c r="I16" s="13">
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="J16" s="16"/>
       <c r="K16" s="16">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>1.9000000000000001E-4</v>
       </c>
       <c r="L16" s="13"/>
       <c r="M16" s="13"/>
@@ -1302,12 +1303,12 @@
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J19" s="13"/>
       <c r="K19" s="13">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -1326,12 +1327,13 @@
       <c r="G20" s="13"/>
       <c r="H20" s="13"/>
       <c r="I20" s="17">
-        <v>1</v>
+        <f>H10</f>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="J20" s="13"/>
       <c r="K20" s="13">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="L20" s="13"/>
       <c r="M20" s="13"/>
@@ -1350,13 +1352,14 @@
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
       <c r="H21" s="13"/>
-      <c r="I21" s="17">
-        <v>1</v>
+      <c r="I21" s="20">
+        <f>H11</f>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="J21" s="16"/>
       <c r="K21" s="18">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="L21" s="16"/>
       <c r="M21" s="13"/>
@@ -1452,13 +1455,13 @@
       <c r="G25" s="13"/>
       <c r="H25" s="13"/>
       <c r="I25" s="17">
-        <v>0</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="J25" s="13"/>
       <c r="K25" s="13"/>
       <c r="L25" s="13">
         <f>I25</f>
-        <v>0</v>
+        <v>0.38779999999999998</v>
       </c>
       <c r="M25" s="13"/>
       <c r="N25" s="13"/>
@@ -1477,13 +1480,13 @@
       <c r="G26" s="13"/>
       <c r="H26" s="13"/>
       <c r="I26" s="17">
-        <v>0</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
       <c r="L26" s="13">
         <f t="shared" ref="L26:L28" si="5">I26</f>
-        <v>0</v>
+        <v>2.4000000000000001E-4</v>
       </c>
       <c r="M26" s="16"/>
       <c r="N26" s="13"/>
@@ -1554,13 +1557,13 @@
       <c r="G29" s="15"/>
       <c r="H29" s="15"/>
       <c r="I29" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J29" s="15"/>
       <c r="K29" s="15"/>
       <c r="L29" s="15">
         <f>I29</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="M29" s="15"/>
       <c r="N29" s="15"/>
@@ -1578,13 +1581,14 @@
       <c r="G30" s="13"/>
       <c r="H30" s="13"/>
       <c r="I30" s="17">
-        <v>1</v>
+        <f>I20</f>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="17">
         <f>I30</f>
-        <v>1</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
@@ -1602,14 +1606,15 @@
       <c r="F31" s="13"/>
       <c r="G31" s="13"/>
       <c r="H31" s="13"/>
-      <c r="I31" s="17">
-        <v>1</v>
+      <c r="I31" s="20">
+        <f>I21</f>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="17">
         <f t="shared" ref="L31:L33" si="7">I31</f>
-        <v>1</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
@@ -1704,14 +1709,14 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="17">
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13">
         <f>I35</f>
-        <v>0</v>
+        <v>5370</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13" t="str">
@@ -1729,14 +1734,14 @@
       <c r="G36" s="13"/>
       <c r="H36" s="13"/>
       <c r="I36" s="17">
-        <v>0</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13">
         <f t="shared" ref="M36:M38" si="9">I36</f>
-        <v>0</v>
+        <v>3.4000000000000002E-4</v>
       </c>
       <c r="N36" s="13"/>
       <c r="O36" s="13" t="str">
@@ -1806,14 +1811,14 @@
       <c r="G39" s="15"/>
       <c r="H39" s="15"/>
       <c r="I39" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J39" s="15"/>
       <c r="K39" s="15"/>
       <c r="L39" s="15"/>
       <c r="M39" s="15">
         <f>I39</f>
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="N39" s="15"/>
       <c r="O39" s="15" t="s">
@@ -1830,14 +1835,15 @@
       <c r="G40" s="13"/>
       <c r="H40" s="13"/>
       <c r="I40" s="17">
-        <v>1</v>
+        <f>I20</f>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="17">
         <f>I40</f>
-        <v>1</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="N40" s="13"/>
       <c r="O40" s="13" t="str">
@@ -1854,15 +1860,16 @@
       <c r="F41" s="13"/>
       <c r="G41" s="13"/>
       <c r="H41" s="13"/>
-      <c r="I41" s="17">
-        <v>1</v>
+      <c r="I41" s="20">
+        <f>I21</f>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="17">
         <f t="shared" ref="M41:M43" si="11">I41</f>
-        <v>1</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="N41" s="13"/>
       <c r="O41" s="13" t="str">

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19562213-9A1B-40EE-88E3-A8DE8FB8FFCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F86A42A-4780-4F06-A420-3F67D89A9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17052" yWindow="2256" windowWidth="21012" windowHeight="14256" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7800" yWindow="4980" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -786,16 +786,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -812,7 +812,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>42991</v>
       </c>
@@ -839,37 +839,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:V43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,7 +882,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -944,7 +944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -968,7 +968,7 @@
       <c r="P4" s="11"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
@@ -993,7 +993,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1045,7 @@
       </c>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1070,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1104,8 +1104,11 @@
         <f>O9</f>
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
@@ -1123,7 +1126,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1143,7 +1146,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
@@ -1168,7 +1171,7 @@
       </c>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1192,7 +1195,7 @@
       </c>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
@@ -1217,7 +1220,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
@@ -1242,7 +1245,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1269,7 +1272,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1294,7 +1297,7 @@
       </c>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1318,7 +1321,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D20" s="12" t="s">
         <v>33</v>
       </c>
@@ -1344,7 +1347,7 @@
       </c>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
@@ -1370,7 +1373,7 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
@@ -1397,7 +1400,7 @@
       </c>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1422,7 +1425,7 @@
       </c>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
@@ -1446,7 +1449,7 @@
       </c>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
@@ -1471,7 +1474,7 @@
       </c>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D26" s="12" t="s">
         <v>34</v>
       </c>
@@ -1496,7 +1499,7 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -1523,7 +1526,7 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1548,7 +1551,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
@@ -1572,7 +1575,7 @@
       </c>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1598,7 +1601,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1624,7 +1627,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -1651,7 +1654,7 @@
       </c>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
@@ -1676,7 +1679,7 @@
       </c>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1700,7 +1703,7 @@
       </c>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
@@ -1725,7 +1728,7 @@
       </c>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D36" s="12" t="s">
         <v>34</v>
       </c>
@@ -1750,7 +1753,7 @@
       </c>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D37" s="13" t="s">
         <v>16</v>
       </c>
@@ -1777,7 +1780,7 @@
       </c>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D38" s="14" t="s">
         <v>17</v>
       </c>
@@ -1802,7 +1805,7 @@
       </c>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1829,7 @@
       </c>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D40" s="12" t="s">
         <v>33</v>
       </c>
@@ -1852,7 +1855,7 @@
       </c>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D41" s="12" t="s">
         <v>34</v>
       </c>
@@ -1878,7 +1881,7 @@
       </c>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +1908,7 @@
       </c>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D43" s="14" t="s">
         <v>17</v>
       </c>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F86A42A-4780-4F06-A420-3F67D89A9626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A61F31-3C86-439F-954A-29E6A870E01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="4980" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
-    <sheet name="SUP_TRADE" sheetId="2" r:id="rId2"/>
+    <sheet name="H2_SUP_TRADE" sheetId="2" r:id="rId2"/>
+    <sheet name="MOE_SUP_TRADE" sheetId="4" r:id="rId3"/>
+    <sheet name="KRE_SUP_TRADE" sheetId="5" r:id="rId4"/>
+    <sheet name="AMM_SUP_TRADE" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -82,8 +85,161 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{A65FB339-D536-49EC-B012-0600B4DCE5E8}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{95038686-4EFC-4858-9B24-2C4A11E7154E}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{A330ACB6-15B1-40AA-8710-9FE882C182E2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{D8C32D1F-FB84-4DB2-BCD9-A9C3C721C3CF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{5AFEE202-8554-449F-8841-7C070948BD42}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{0BAD7CD0-790A-4B43-883E-422B1830E10A}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{53509C0A-C4B9-4343-B8E1-BBC4B1A98694}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{31D0F415-03EA-4258-8666-C01FB5C35AE0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{02FCD11E-A241-443F-AAAA-C04304FF1858}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="67">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -212,6 +368,78 @@
   </si>
   <si>
     <t>TB_H2_DKISL3_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_MOE_DKISL3_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_KRE_DKISL3_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_AMM_DKISL3_DKW_02</t>
   </si>
 </sst>
 </file>
@@ -823,7 +1051,7 @@
         <v>27</v>
       </c>
       <c r="D4" s="9" t="str">
-        <f>ADDRESS(ROW(SUP_TRADE!H3),COLUMN(SUP_TRADE!H3),4,1)&amp;","&amp;ADDRESS(ROW(SUP_TRADE!I3),COLUMN(SUP_TRADE!I3),4,1)</f>
+        <f>ADDRESS(ROW(H2_SUP_TRADE!H3),COLUMN(H2_SUP_TRADE!H3),4,1)&amp;","&amp;ADDRESS(ROW(H2_SUP_TRADE!I3),COLUMN(H2_SUP_TRADE!I3),4,1)</f>
         <v>H3,I3</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -839,10 +1067,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V43"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -864,12 +1092,12 @@
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -882,7 +1110,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -944,7 +1172,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -968,7 +1196,7 @@
       <c r="P4" s="11"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
@@ -993,7 +1221,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
@@ -1018,7 +1246,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1045,7 +1273,7 @@
       </c>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1070,7 +1298,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1087,7 +1315,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1104,11 +1332,8 @@
         <f>O9</f>
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
@@ -1126,7 +1351,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1146,7 +1371,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1396,7 @@
       </c>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1195,7 +1420,7 @@
       </c>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
@@ -1220,7 +1445,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
@@ -1938,4 +2163,2908 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631640E5-5850-40C9-881C-CA46D9462D7F}">
+  <dimension ref="C2:V43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="I4" s="11">
+        <v>50</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="I5" s="13">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
+        <f>I5</f>
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" t="str">
+        <f>P4</f>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="I6" s="13">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="I8" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="I9" s="11">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f>I9</f>
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="I10" s="17">
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="P10" t="str">
+        <f>P9</f>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="I11" s="20">
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11:P13" si="2">P10</f>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
+        <f>I12</f>
+        <v>0.98</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="I13" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f>I13</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11">
+        <v>50</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L23" si="3">J14</f>
+        <v>50</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" t="str">
+        <f>P14</f>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" t="str">
+        <f t="shared" ref="P16:P18" si="4">P15</f>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="11">
+        <v>20</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="17">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="3"/>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="str">
+        <f>P19</f>
+        <v>TB_MOE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="20">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:P23" si="5">P20</f>
+        <v>TB_MOE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_MOE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_MOE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11">
+        <v>50</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15">
+        <f>J24</f>
+        <v>50</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="17">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
+        <f>J25</f>
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="str">
+        <f>P24</f>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="17">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M28" si="6">J26</f>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P28" si="7">P25</f>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13">
+        <f t="shared" si="6"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="11">
+        <v>20</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
+        <f>J29</f>
+        <v>20</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="17">
+        <f>J30</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="str">
+        <f>P29</f>
+        <v>TB_MOE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="17">
+        <f t="shared" ref="M31:M33" si="8">J31</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="str">
+        <f t="shared" ref="P31:P33" si="9">P30</f>
+        <v>TB_MOE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="17">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_MOE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="17">
+        <f t="shared" si="8"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_MOE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="11">
+        <v>50</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
+        <f>J34</f>
+        <v>50</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="17">
+        <v>5370</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
+        <f>J35</f>
+        <v>5370</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" t="str">
+        <f>P34</f>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="17">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
+        <f t="shared" ref="N36:N38" si="10">J36</f>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" t="str">
+        <f t="shared" ref="P36:P38" si="11">P35</f>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13">
+        <f t="shared" si="10"/>
+        <v>0.98</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="13">
+        <f t="shared" si="10"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
+        <f>J39</f>
+        <v>20</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="17">
+        <f>J40</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" t="str">
+        <f>P39</f>
+        <v>TB_MOE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="17">
+        <f t="shared" ref="N41:N43" si="12">J41</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" t="str">
+        <f t="shared" ref="P41:P43" si="13">P40</f>
+        <v>TB_MOE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="17">
+        <f t="shared" si="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_MOE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="19">
+        <f t="shared" si="12"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_MOE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
+  <dimension ref="C2:V43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4:O43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="I4" s="11">
+        <v>50</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="I5" s="13">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
+        <f>I5</f>
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" t="str">
+        <f>P4</f>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="I6" s="13">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="I8" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="I9" s="11">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f>I9</f>
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="I10" s="17">
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="P10" t="str">
+        <f>P9</f>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="I11" s="20">
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11:P13" si="2">P10</f>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
+        <f>I12</f>
+        <v>0.98</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="I13" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f>I13</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11">
+        <v>50</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L23" si="3">J14</f>
+        <v>50</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" t="str">
+        <f>P14</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" t="str">
+        <f t="shared" ref="P16:P18" si="4">P15</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="11">
+        <v>20</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="17">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="3"/>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="str">
+        <f>P19</f>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="20">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:P23" si="5">P20</f>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11">
+        <v>50</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15">
+        <f>J24</f>
+        <v>50</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="17">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
+        <f>J25</f>
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="str">
+        <f>P24</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="17">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M28" si="6">J26</f>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P28" si="7">P25</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13">
+        <f t="shared" si="6"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="11">
+        <v>20</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
+        <f>J29</f>
+        <v>20</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="17">
+        <f>J30</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="str">
+        <f>P29</f>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="17">
+        <f t="shared" ref="M31:M33" si="8">J31</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="str">
+        <f t="shared" ref="P31:P33" si="9">P30</f>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="17">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="17">
+        <f t="shared" si="8"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="11">
+        <v>50</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
+        <f>J34</f>
+        <v>50</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="17">
+        <v>5370</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
+        <f>J35</f>
+        <v>5370</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" t="str">
+        <f>P34</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="17">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
+        <f t="shared" ref="N36:N38" si="10">J36</f>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" t="str">
+        <f t="shared" ref="P36:P38" si="11">P35</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13">
+        <f t="shared" si="10"/>
+        <v>0.98</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="13">
+        <f t="shared" si="10"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
+        <f>J39</f>
+        <v>20</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="17">
+        <f>J40</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" t="str">
+        <f>P39</f>
+        <v>TB_KRE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="17">
+        <f t="shared" ref="N41:N43" si="12">J41</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" t="str">
+        <f t="shared" ref="P41:P43" si="13">P40</f>
+        <v>TB_KRE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="17">
+        <f t="shared" si="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_KRE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="19">
+        <f t="shared" si="12"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_KRE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4FCC-23F0-4F3B-9CD2-8D3544B74DA5}">
+  <dimension ref="C2:V43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AC45" sqref="AC45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="V3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="11"/>
+      <c r="I4" s="11">
+        <v>50</v>
+      </c>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11">
+        <v>50</v>
+      </c>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E5" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13"/>
+      <c r="I5" s="13">
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13">
+        <f>I5</f>
+        <v>8.9499999999999996E-2</v>
+      </c>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+      <c r="P5" t="str">
+        <f>P4</f>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E6" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="13"/>
+      <c r="I6" s="13">
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13">
+        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E7" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="I8" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="13">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
+      <c r="P8" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E9" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="I9" s="11">
+        <v>20</v>
+      </c>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11">
+        <f>I9</f>
+        <v>20</v>
+      </c>
+      <c r="P9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E10" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="13"/>
+      <c r="I10" s="17">
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="P10" t="str">
+        <f>P9</f>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E11" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="13"/>
+      <c r="I11" s="20">
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="17">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="P11" t="str">
+        <f t="shared" ref="P11:P13" si="2">P10</f>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E12" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
+        <f>I12</f>
+        <v>0.98</v>
+      </c>
+      <c r="P12" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="14"/>
+      <c r="I13" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14">
+        <f>I13</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="11">
+        <v>50</v>
+      </c>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13">
+        <f t="shared" ref="L14:L23" si="3">J14</f>
+        <v>50</v>
+      </c>
+      <c r="M14" s="13"/>
+      <c r="N14" s="13"/>
+      <c r="O14" s="13"/>
+      <c r="P14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13">
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13">
+        <f t="shared" si="3"/>
+        <v>0.29830000000000001</v>
+      </c>
+      <c r="M15" s="13"/>
+      <c r="N15" s="13"/>
+      <c r="O15" s="13"/>
+      <c r="P15" t="str">
+        <f>P14</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="E16" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13">
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16">
+        <f t="shared" si="3"/>
+        <v>1.9000000000000001E-4</v>
+      </c>
+      <c r="M16" s="13"/>
+      <c r="N16" s="13"/>
+      <c r="O16" s="13"/>
+      <c r="P16" t="str">
+        <f t="shared" ref="P16:P18" si="4">P15</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E17" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M17" s="13"/>
+      <c r="N17" s="13"/>
+      <c r="O17" s="13"/>
+      <c r="P17" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="11"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="11">
+        <v>20</v>
+      </c>
+      <c r="K19" s="13"/>
+      <c r="L19" s="13">
+        <f t="shared" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="M19" s="15"/>
+      <c r="N19" s="15"/>
+      <c r="O19" s="15"/>
+      <c r="P19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="13"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="17">
+        <f>I10</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K20" s="13"/>
+      <c r="L20" s="13">
+        <f t="shared" si="3"/>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="M20" s="13"/>
+      <c r="N20" s="13"/>
+      <c r="O20" s="13"/>
+      <c r="P20" t="str">
+        <f>P19</f>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="20">
+        <f>I11</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K21" s="16"/>
+      <c r="L21" s="18">
+        <f t="shared" si="3"/>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="M21" s="16"/>
+      <c r="N21" s="13"/>
+      <c r="O21" s="13"/>
+      <c r="P21" t="str">
+        <f t="shared" ref="P21:P23" si="5">P20</f>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K22" s="16"/>
+      <c r="L22" s="18">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="M22" s="16"/>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13"/>
+      <c r="P22" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" s="14"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K23" s="14"/>
+      <c r="L23" s="14">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M23" s="14"/>
+      <c r="N23" s="14"/>
+      <c r="O23" s="14"/>
+      <c r="P23" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E24" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="11">
+        <v>50</v>
+      </c>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15">
+        <f>J24</f>
+        <v>50</v>
+      </c>
+      <c r="N24" s="15"/>
+      <c r="O24" s="15"/>
+      <c r="P24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E25" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="17">
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="K25" s="13"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13">
+        <f>J25</f>
+        <v>0.38779999999999998</v>
+      </c>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" t="str">
+        <f>P24</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E26" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="17">
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="K26" s="16"/>
+      <c r="L26" s="16"/>
+      <c r="M26" s="13">
+        <f t="shared" ref="M26:M28" si="6">J26</f>
+        <v>2.4000000000000001E-4</v>
+      </c>
+      <c r="N26" s="16"/>
+      <c r="O26" s="13"/>
+      <c r="P26" t="str">
+        <f t="shared" ref="P26:P28" si="7">P25</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E27" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K27" s="16"/>
+      <c r="L27" s="16"/>
+      <c r="M27" s="13">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+      <c r="N27" s="16"/>
+      <c r="O27" s="13"/>
+      <c r="P27" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="13">
+        <f t="shared" si="6"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="I29" s="15"/>
+      <c r="J29" s="11">
+        <v>20</v>
+      </c>
+      <c r="K29" s="15"/>
+      <c r="L29" s="15"/>
+      <c r="M29" s="15">
+        <f>J29</f>
+        <v>20</v>
+      </c>
+      <c r="N29" s="15"/>
+      <c r="O29" s="15"/>
+      <c r="P29" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K30" s="13"/>
+      <c r="L30" s="13"/>
+      <c r="M30" s="17">
+        <f>J30</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="N30" s="13"/>
+      <c r="O30" s="13"/>
+      <c r="P30" t="str">
+        <f>P29</f>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K31" s="13"/>
+      <c r="L31" s="13"/>
+      <c r="M31" s="17">
+        <f t="shared" ref="M31:M33" si="8">J31</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="N31" s="13"/>
+      <c r="O31" s="13"/>
+      <c r="P31" t="str">
+        <f t="shared" ref="P31:P33" si="9">P30</f>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K32" s="13"/>
+      <c r="L32" s="13"/>
+      <c r="M32" s="17">
+        <f t="shared" si="8"/>
+        <v>0.98</v>
+      </c>
+      <c r="N32" s="13"/>
+      <c r="O32" s="13"/>
+      <c r="P32" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="17">
+        <f t="shared" si="8"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="I34" s="15"/>
+      <c r="J34" s="11">
+        <v>50</v>
+      </c>
+      <c r="K34" s="15"/>
+      <c r="L34" s="15"/>
+      <c r="M34" s="15"/>
+      <c r="N34" s="15">
+        <f>J34</f>
+        <v>50</v>
+      </c>
+      <c r="O34" s="15"/>
+      <c r="P34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="17">
+        <v>5370</v>
+      </c>
+      <c r="K35" s="13"/>
+      <c r="L35" s="13"/>
+      <c r="M35" s="13"/>
+      <c r="N35" s="13">
+        <f>J35</f>
+        <v>5370</v>
+      </c>
+      <c r="O35" s="13"/>
+      <c r="P35" t="str">
+        <f>P34</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E36" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36" s="13"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="17">
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="K36" s="13"/>
+      <c r="L36" s="13"/>
+      <c r="M36" s="13"/>
+      <c r="N36" s="13">
+        <f t="shared" ref="N36:N38" si="10">J36</f>
+        <v>3.4000000000000002E-4</v>
+      </c>
+      <c r="O36" s="13"/>
+      <c r="P36" t="str">
+        <f t="shared" ref="P36:P38" si="11">P35</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E37" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I37" s="13"/>
+      <c r="J37" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K37" s="13"/>
+      <c r="L37" s="13"/>
+      <c r="M37" s="13"/>
+      <c r="N37" s="13">
+        <f t="shared" si="10"/>
+        <v>0.98</v>
+      </c>
+      <c r="O37" s="13"/>
+      <c r="P37" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="I38" s="14"/>
+      <c r="J38" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K38" s="14"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="13">
+        <f t="shared" si="10"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O38" s="14"/>
+      <c r="P38" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="I39" s="15"/>
+      <c r="J39" s="11">
+        <v>20</v>
+      </c>
+      <c r="K39" s="15"/>
+      <c r="L39" s="15"/>
+      <c r="M39" s="15"/>
+      <c r="N39" s="15">
+        <f>J39</f>
+        <v>20</v>
+      </c>
+      <c r="O39" s="15"/>
+      <c r="P39" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="13"/>
+      <c r="I40" s="13"/>
+      <c r="J40" s="17">
+        <f>J20</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="13"/>
+      <c r="N40" s="17">
+        <f>J40</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="O40" s="13"/>
+      <c r="P40" t="str">
+        <f>P39</f>
+        <v>TB_AMM_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E41" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="20">
+        <f>J21</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="17">
+        <f t="shared" ref="N41:N43" si="12">J41</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="O41" s="13"/>
+      <c r="P41" t="str">
+        <f t="shared" ref="P41:P43" si="13">P40</f>
+        <v>TB_AMM_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E42" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F42" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="17">
+        <f t="shared" si="12"/>
+        <v>0.98</v>
+      </c>
+      <c r="O42" s="13"/>
+      <c r="P42" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_AMM_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
+      <c r="E43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="F43" s="14"/>
+      <c r="I43" s="14"/>
+      <c r="J43" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14"/>
+      <c r="M43" s="14"/>
+      <c r="N43" s="19">
+        <f t="shared" si="12"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O43" s="14"/>
+      <c r="P43" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_AMM_DKISL3_DKW_02</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES Modeller\TIMES-TOM\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A61F31-3C86-439F-954A-29E6A870E01D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC743C71-D65F-426C-9927-4FB86B3B8D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -239,7 +239,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -440,6 +440,9 @@
   </si>
   <si>
     <t>TB_AMM_DKISL3_DKW_02</t>
+  </si>
+  <si>
+    <t>VAROM</t>
   </si>
 </sst>
 </file>
@@ -627,7 +630,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -657,6 +660,10 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1014,16 +1021,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="19.7109375" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="1" max="1" width="11.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="19.6640625" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1040,7 +1047,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A4" s="10">
         <v>42991</v>
       </c>
@@ -1073,31 +1080,31 @@
       <selection activeCell="H4" sqref="H4:N43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.5703125" customWidth="1"/>
-    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5703125" customWidth="1"/>
-    <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.5546875" customWidth="1"/>
+    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.5546875" customWidth="1"/>
+    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1110,7 +1117,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1179,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1196,7 +1203,7 @@
       <c r="P4" s="11"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1221,7 +1228,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
@@ -1246,7 +1253,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1280,7 @@
       </c>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1298,7 +1305,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1315,7 +1322,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1333,7 +1340,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
@@ -1351,7 +1358,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1371,7 +1378,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
@@ -1396,7 +1403,7 @@
       </c>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1420,7 +1427,7 @@
       </c>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
@@ -1445,7 +1452,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
@@ -1470,7 +1477,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1504,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1522,7 +1529,7 @@
       </c>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1546,7 +1553,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="12" t="s">
         <v>33</v>
       </c>
@@ -1572,7 +1579,7 @@
       </c>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
@@ -1598,7 +1605,7 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
@@ -1625,7 +1632,7 @@
       </c>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1650,7 +1657,7 @@
       </c>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
@@ -1674,7 +1681,7 @@
       </c>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
@@ -1699,7 +1706,7 @@
       </c>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="12" t="s">
         <v>34</v>
       </c>
@@ -1724,7 +1731,7 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -1751,7 +1758,7 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1776,7 +1783,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
@@ -1800,7 +1807,7 @@
       </c>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1826,7 +1833,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1852,7 +1859,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -1879,7 +1886,7 @@
       </c>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
@@ -1904,7 +1911,7 @@
       </c>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
@@ -1928,7 +1935,7 @@
       </c>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
@@ -1953,7 +1960,7 @@
       </c>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D36" s="12" t="s">
         <v>34</v>
       </c>
@@ -1978,7 +1985,7 @@
       </c>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D37" s="13" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +2012,7 @@
       </c>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="4:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D38" s="14" t="s">
         <v>17</v>
       </c>
@@ -2030,7 +2037,7 @@
       </c>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
@@ -2054,7 +2061,7 @@
       </c>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D40" s="12" t="s">
         <v>33</v>
       </c>
@@ -2080,7 +2087,7 @@
       </c>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D41" s="12" t="s">
         <v>34</v>
       </c>
@@ -2106,7 +2113,7 @@
       </c>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2133,7 +2140,7 @@
       </c>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D43" s="14" t="s">
         <v>17</v>
       </c>
@@ -2167,15 +2174,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631640E5-5850-40C9-881C-CA46D9462D7F}">
-  <dimension ref="C2:V43"/>
+  <dimension ref="C2:AD44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O43"/>
+      <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2188,7 +2195,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2250,17 +2257,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E4" s="11" t="s">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="E4" s="21" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11"/>
       <c r="I4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -2270,18 +2277,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="13"/>
       <c r="I5" s="13">
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13">
         <f>I5</f>
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -2291,19 +2298,22 @@
         <f>P4</f>
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E6" s="12" t="s">
+      <c r="AD5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="13"/>
       <c r="I6" s="13">
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <f t="shared" ref="K6:K8" si="0">I6</f>
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -2313,817 +2323,1027 @@
         <f t="shared" ref="P6:P8" si="1">P5</f>
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="AD6" t="str">
+        <f>AD5</f>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="E7" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K7">
+        <f>I7</f>
+        <v>4.4400000000000004</v>
+      </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
+      <c r="AD7" t="str">
+        <f t="shared" ref="AD7:AD9" si="2">AD6</f>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="E8" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13">
+        <f>I8</f>
+        <v>0.98</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" t="str">
+        <f>P6</f>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+      <c r="AD8" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="13"/>
+      <c r="E9" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="I8" s="14">
+      <c r="F9" s="13"/>
+      <c r="I9" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
+        <f>I9</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" t="str">
-        <f t="shared" si="1"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" t="str">
+        <f>P8</f>
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="Q9" s="13"/>
+      <c r="R9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="T9" s="13"/>
+      <c r="AD9" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_MOE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="10" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D10" s="13"/>
+      <c r="E10" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="I9" s="11">
+      <c r="F10" s="11"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="11">
         <v>20</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f>I9</f>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13">
+        <f>J10</f>
         <v>20</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+      <c r="P10" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="13"/>
+      <c r="T10" s="13"/>
+      <c r="AD10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="12" t="s">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D11" s="13"/>
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="I10" s="17">
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="P10" t="str">
-        <f>P9</f>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13">
+        <f t="shared" ref="L11:L15" si="3">J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
+      <c r="P11" t="str">
+        <f>P10</f>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+      <c r="S11" s="13"/>
+      <c r="T11" s="13"/>
+      <c r="AD11" t="str">
+        <f>AD10</f>
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D12" s="13"/>
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="I11" s="20">
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" ref="P11:P13" si="2">P10</f>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="13"/>
+      <c r="L12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="13"/>
+      <c r="N12" s="13"/>
+      <c r="O12" s="13"/>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12:P15" si="4">P11</f>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+      <c r="S12" s="13"/>
+      <c r="T12" s="13"/>
+      <c r="AD12" t="str">
+        <f t="shared" ref="AD12:AD14" si="5">AD11</f>
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="13" t="s">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D13" s="13"/>
+      <c r="E13" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="17">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13">
+        <f t="shared" si="3"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="M13" s="13"/>
+      <c r="N13" s="13"/>
+      <c r="O13" s="13"/>
+      <c r="P13" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+      <c r="S13" s="13"/>
+      <c r="T13" s="13"/>
+      <c r="AD13" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D14" s="13"/>
+      <c r="E14" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F14" s="13">
         <v>2020</v>
       </c>
-      <c r="I12" s="13">
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13">
         <v>0.98</v>
-      </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
-        <f>I12</f>
-        <v>0.98</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_MOE_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="I13" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <f>I13</f>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_MOE_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11">
-        <v>50</v>
       </c>
       <c r="K14" s="13"/>
       <c r="L14" s="13">
-        <f t="shared" ref="L14:L23" si="3">J14</f>
-        <v>50</v>
+        <f t="shared" si="3"/>
+        <v>0.98</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
-      <c r="P14" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="12" t="s">
-        <v>33</v>
+      <c r="P14" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+      <c r="S14" s="13"/>
+      <c r="T14" s="13"/>
+      <c r="AD14" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_MOE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="15" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="13"/>
+      <c r="E15" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
       <c r="I15" s="13"/>
       <c r="J15" s="13">
-        <v>0.29830000000000001</v>
+        <v>3.1536000000000002E-2</v>
       </c>
       <c r="K15" s="13"/>
       <c r="L15" s="13">
         <f t="shared" si="3"/>
-        <v>0.29830000000000001</v>
+        <v>3.1536000000000002E-2</v>
       </c>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
       <c r="P15" t="str">
-        <f>P14</f>
+        <f t="shared" si="4"/>
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="13"/>
+      <c r="Q15" s="13"/>
+      <c r="R15" s="13"/>
+      <c r="S15" s="13"/>
+      <c r="T15" s="13"/>
+      <c r="AD15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="3:30" x14ac:dyDescent="0.3">
+      <c r="D16" s="13"/>
+      <c r="E16" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
       <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="M16" s="13"/>
+      <c r="J16" s="11">
+        <v>20</v>
+      </c>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="13">
+        <f>J16</f>
+        <v>20</v>
+      </c>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
-      <c r="P16" t="str">
-        <f t="shared" ref="P16:P18" si="4">P15</f>
+      <c r="P16" t="s">
+        <v>47</v>
+      </c>
+      <c r="S16" s="13"/>
+      <c r="T16" s="13"/>
+      <c r="AD16" t="str">
+        <f>AD15</f>
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2020</v>
-      </c>
+    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D17" s="13"/>
+      <c r="E17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
       <c r="I17" s="13"/>
       <c r="J17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="M17" s="13"/>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="13">
+        <f t="shared" ref="M17:M20" si="6">J17</f>
+        <v>0</v>
+      </c>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
       <c r="P17" t="str">
-        <f t="shared" si="4"/>
+        <f>P16</f>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+      <c r="S17" s="13"/>
+      <c r="T17" s="13"/>
+      <c r="AD17" t="str">
+        <f t="shared" ref="AD17:AD19" si="7">AD16</f>
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14">
-        <f t="shared" si="3"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
+    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D18" s="13"/>
+      <c r="E18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="13"/>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="13">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="13"/>
+      <c r="O18" s="13"/>
       <c r="P18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="P18:P21" si="8">P17</f>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+      <c r="S18" s="13"/>
+      <c r="T18" s="13"/>
+      <c r="AD18" t="str">
+        <f t="shared" si="7"/>
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11">
-        <v>20</v>
+    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D19" s="13"/>
+      <c r="E19" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="17">
+        <v>4.4400000000000004</v>
       </c>
       <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F20" s="13"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="13">
+        <f t="shared" si="6"/>
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="N19" s="13"/>
+      <c r="O19" s="13"/>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+      <c r="S19" s="13"/>
+      <c r="T19" s="13"/>
+      <c r="AD19" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_MOE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D20" s="13"/>
+      <c r="E20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G20" s="13"/>
+      <c r="H20" s="13"/>
       <c r="I20" s="13"/>
-      <c r="J20" s="17">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
+      <c r="J20" s="13">
+        <v>0.98</v>
       </c>
       <c r="K20" s="13"/>
-      <c r="L20" s="13">
-        <f t="shared" si="3"/>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="M20" s="13"/>
+      <c r="L20" s="13"/>
+      <c r="M20" s="13">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
       <c r="P20" t="str">
-        <f>P19</f>
-        <v>TB_MOE_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
-        <v>34</v>
+        <f t="shared" si="8"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+      <c r="S20" s="13"/>
+      <c r="T20" s="13"/>
+      <c r="AD20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="13"/>
+      <c r="E21" s="17" t="s">
+        <v>17</v>
       </c>
       <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
       <c r="I21" s="13"/>
-      <c r="J21" s="20">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18">
-        <f t="shared" si="3"/>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="M21" s="16"/>
+      <c r="J21" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K21" s="13"/>
+      <c r="L21" s="13"/>
+      <c r="M21" s="13">
+        <f>J21</f>
+        <v>3.1536000000000002E-2</v>
+      </c>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
       <c r="P21" t="str">
-        <f t="shared" ref="P21:P23" si="5">P20</f>
+        <f t="shared" si="8"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q21" s="13"/>
+      <c r="R21" s="13"/>
+      <c r="S21" s="13"/>
+      <c r="T21" s="13"/>
+      <c r="AD21" t="str">
+        <f>AD20</f>
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2020</v>
-      </c>
+    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D22" s="13"/>
+      <c r="E22" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" s="11"/>
+      <c r="G22" s="13"/>
+      <c r="H22" s="13"/>
       <c r="I22" s="13"/>
-      <c r="J22" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="13"/>
+      <c r="J22" s="11">
+        <v>20</v>
+      </c>
+      <c r="K22" s="13"/>
+      <c r="L22" s="13"/>
+      <c r="M22" s="13"/>
+      <c r="N22" s="13">
+        <f>J22</f>
+        <v>20</v>
+      </c>
       <c r="O22" s="13"/>
-      <c r="P22" t="str">
-        <f t="shared" si="5"/>
+      <c r="P22" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="13"/>
+      <c r="R22" s="13"/>
+      <c r="S22" s="13"/>
+      <c r="T22" s="13"/>
+      <c r="AD22" t="str">
+        <f t="shared" ref="AD22:AD24" si="9">AD21</f>
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14">
-        <f t="shared" si="3"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
+    <row r="23" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D23" s="13"/>
+      <c r="E23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13">
+        <f t="shared" ref="N23:N27" si="10">J23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13"/>
       <c r="P23" t="str">
-        <f t="shared" si="5"/>
+        <f>P22</f>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="AD23" t="str">
+        <f t="shared" si="9"/>
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11">
-        <v>50</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15">
-        <f>J24</f>
-        <v>50</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="13"/>
+    <row r="24" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D24" s="13"/>
+      <c r="E24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="13"/>
+      <c r="H24" s="13"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="13"/>
+      <c r="L24" s="13"/>
+      <c r="M24" s="13"/>
+      <c r="N24" s="13">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13"/>
+      <c r="P24" t="str">
+        <f t="shared" ref="P24:P27" si="11">P23</f>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q24" s="13"/>
+      <c r="R24" s="13"/>
+      <c r="S24" s="13"/>
+      <c r="T24" s="13"/>
+      <c r="AD24" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_MOE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D25" s="13"/>
+      <c r="E25" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="13"/>
+      <c r="H25" s="13"/>
       <c r="I25" s="13"/>
       <c r="J25" s="17">
-        <v>0.38779999999999998</v>
+        <v>4.4400000000000004</v>
       </c>
       <c r="K25" s="13"/>
       <c r="L25" s="13"/>
-      <c r="M25" s="13">
-        <f>J25</f>
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="N25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13">
+        <f t="shared" si="10"/>
+        <v>4.4400000000000004</v>
+      </c>
       <c r="O25" s="13"/>
       <c r="P25" t="str">
-        <f>P24</f>
-        <v>TB_MOE_DKISL2_DKW_01</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="13"/>
+        <f t="shared" si="11"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q25" s="13"/>
+      <c r="R25" s="13"/>
+      <c r="S25" s="13"/>
+      <c r="T25" s="13"/>
+      <c r="AD25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D26" s="13"/>
+      <c r="E26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="13">
+        <v>2020</v>
+      </c>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
       <c r="I26" s="13"/>
-      <c r="J26" s="17">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:M28" si="6">J26</f>
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="N26" s="16"/>
+      <c r="J26" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K26" s="13"/>
+      <c r="L26" s="13"/>
+      <c r="M26" s="13"/>
+      <c r="N26" s="13">
+        <f t="shared" si="10"/>
+        <v>0.98</v>
+      </c>
       <c r="O26" s="13"/>
       <c r="P26" t="str">
-        <f t="shared" ref="P26:P28" si="7">P25</f>
+        <f t="shared" si="11"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q26" s="13"/>
+      <c r="R26" s="13"/>
+      <c r="S26" s="13"/>
+      <c r="T26" s="13"/>
+      <c r="AD26" t="str">
+        <f>AD25</f>
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2020</v>
-      </c>
+    <row r="27" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D27" s="13"/>
+      <c r="E27" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="13"/>
+      <c r="G27" s="13"/>
+      <c r="H27" s="13"/>
       <c r="I27" s="13"/>
       <c r="J27" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="13">
-        <f t="shared" si="6"/>
-        <v>0.98</v>
-      </c>
-      <c r="N27" s="16"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K27" s="13"/>
+      <c r="L27" s="13"/>
+      <c r="M27" s="13"/>
+      <c r="N27" s="13">
+        <f t="shared" si="10"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
       <c r="O27" s="13"/>
       <c r="P27" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q27" s="13"/>
+      <c r="R27" s="13"/>
+      <c r="S27" s="13"/>
+      <c r="T27" s="13"/>
+      <c r="AD27" t="str">
+        <f t="shared" ref="AD27:AD29" si="12">AD26</f>
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="13">
-        <f t="shared" si="6"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
+    <row r="28" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="13"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="13"/>
+      <c r="L28" s="13"/>
+      <c r="M28" s="13"/>
+      <c r="N28" s="13"/>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+      <c r="R28" s="13"/>
+      <c r="S28" s="13"/>
+      <c r="T28" s="13"/>
+      <c r="AD28" t="str">
+        <f t="shared" si="12"/>
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F29" s="11"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="11">
-        <v>20</v>
-      </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15">
-        <f>J29</f>
-        <v>20</v>
-      </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="12" t="s">
-        <v>33</v>
-      </c>
+    <row r="29" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13"/>
+      <c r="L29" s="13"/>
+      <c r="M29" s="13"/>
+      <c r="N29" s="13"/>
+      <c r="O29" s="13"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+      <c r="R29" s="13"/>
+      <c r="S29" s="13"/>
+      <c r="T29" s="13"/>
+      <c r="AD29" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_MOE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="30" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D30" s="13"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="13"/>
+      <c r="G30" s="13"/>
+      <c r="H30" s="13"/>
       <c r="I30" s="13"/>
-      <c r="J30" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
+      <c r="J30" s="13"/>
       <c r="K30" s="13"/>
       <c r="L30" s="13"/>
-      <c r="M30" s="17">
-        <f>J30</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
+      <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
-      <c r="P30" t="str">
-        <f>P29</f>
-        <v>TB_MOE_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+      <c r="R30" s="13"/>
+      <c r="S30" s="13"/>
+      <c r="T30" s="13"/>
+      <c r="AD30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
       <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="13"/>
       <c r="I31" s="13"/>
-      <c r="J31" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
+      <c r="J31" s="13"/>
       <c r="K31" s="13"/>
       <c r="L31" s="13"/>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31:M33" si="8">J31</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
+      <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
-      <c r="P31" t="str">
-        <f t="shared" ref="P31:P33" si="9">P30</f>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+      <c r="R31" s="13"/>
+      <c r="S31" s="13"/>
+      <c r="T31" s="13"/>
+      <c r="AD31" t="str">
+        <f>AD30</f>
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2020</v>
-      </c>
+    <row r="32" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="13"/>
       <c r="I32" s="13"/>
-      <c r="J32" s="13">
-        <v>0.98</v>
-      </c>
+      <c r="J32" s="13"/>
       <c r="K32" s="13"/>
       <c r="L32" s="13"/>
-      <c r="M32" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98</v>
-      </c>
+      <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
-      <c r="P32" t="str">
-        <f t="shared" si="9"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+      <c r="R32" s="13"/>
+      <c r="S32" s="13"/>
+      <c r="T32" s="13"/>
+      <c r="AD32" t="str">
+        <f t="shared" ref="AD32:AD34" si="13">AD31</f>
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="17">
-        <f t="shared" si="8"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" t="str">
-        <f t="shared" si="9"/>
+    <row r="33" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D33" s="13"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
+      <c r="K33" s="13"/>
+      <c r="L33" s="13"/>
+      <c r="M33" s="13"/>
+      <c r="N33" s="13"/>
+      <c r="O33" s="13"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+      <c r="R33" s="13"/>
+      <c r="S33" s="13"/>
+      <c r="T33" s="13"/>
+      <c r="AD33" t="str">
+        <f t="shared" si="13"/>
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="11">
-        <v>50</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
-        <f>J34</f>
-        <v>50</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="12" t="s">
-        <v>33</v>
-      </c>
+    <row r="34" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+      <c r="N34" s="13"/>
+      <c r="O34" s="13"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+      <c r="R34" s="13"/>
+      <c r="S34" s="13"/>
+      <c r="T34" s="13"/>
+      <c r="AD34" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_MOE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="35" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
       <c r="F35" s="13"/>
+      <c r="G35" s="13"/>
+      <c r="H35" s="13"/>
       <c r="I35" s="13"/>
-      <c r="J35" s="17">
-        <v>5370</v>
-      </c>
+      <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13"/>
-      <c r="N35" s="13">
-        <f>J35</f>
-        <v>5370</v>
-      </c>
+      <c r="N35" s="13"/>
       <c r="O35" s="13"/>
-      <c r="P35" t="str">
-        <f>P34</f>
-        <v>TB_MOE_DKISL3_DKW_01</v>
-      </c>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+      <c r="R35" s="13"/>
+      <c r="S35" s="13"/>
+      <c r="T35" s="13"/>
+      <c r="AD35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D36" s="13"/>
+      <c r="E36" s="13"/>
       <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="13"/>
       <c r="I36" s="13"/>
-      <c r="J36" s="17">
-        <v>3.4000000000000002E-4</v>
-      </c>
+      <c r="J36" s="13"/>
       <c r="K36" s="13"/>
       <c r="L36" s="13"/>
       <c r="M36" s="13"/>
-      <c r="N36" s="13">
-        <f t="shared" ref="N36:N38" si="10">J36</f>
-        <v>3.4000000000000002E-4</v>
-      </c>
+      <c r="N36" s="13"/>
       <c r="O36" s="13"/>
-      <c r="P36" t="str">
-        <f t="shared" ref="P36:P38" si="11">P35</f>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+      <c r="R36" s="13"/>
+      <c r="S36" s="13"/>
+      <c r="T36" s="13"/>
+      <c r="AD36" t="str">
+        <f>AD35</f>
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2020</v>
-      </c>
+    <row r="37" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D37" s="13"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="13"/>
+      <c r="H37" s="13"/>
       <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <v>0.98</v>
-      </c>
+      <c r="J37" s="13"/>
       <c r="K37" s="13"/>
       <c r="L37" s="13"/>
       <c r="M37" s="13"/>
-      <c r="N37" s="13">
-        <f t="shared" si="10"/>
-        <v>0.98</v>
-      </c>
+      <c r="N37" s="13"/>
       <c r="O37" s="13"/>
-      <c r="P37" t="str">
-        <f t="shared" si="11"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+      <c r="R37" s="13"/>
+      <c r="S37" s="13"/>
+      <c r="T37" s="13"/>
+      <c r="AD37" t="str">
+        <f t="shared" ref="AD37:AD39" si="14">AD36</f>
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13">
-        <f t="shared" si="10"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="O38" s="14"/>
-      <c r="P38" t="str">
-        <f t="shared" si="11"/>
+    <row r="38" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="13"/>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="13"/>
+      <c r="M38" s="13"/>
+      <c r="N38" s="13"/>
+      <c r="O38" s="13"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+      <c r="R38" s="13"/>
+      <c r="S38" s="13"/>
+      <c r="T38" s="13"/>
+      <c r="AD38" t="str">
+        <f t="shared" si="14"/>
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="11">
-        <v>20</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
-        <f>J39</f>
-        <v>20</v>
-      </c>
-      <c r="O39" s="15"/>
-      <c r="P39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="12" t="s">
-        <v>33</v>
-      </c>
+    <row r="39" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D39" s="13"/>
+      <c r="E39" s="13"/>
+      <c r="F39" s="13"/>
+      <c r="G39" s="13"/>
+      <c r="H39" s="13"/>
+      <c r="I39" s="13"/>
+      <c r="J39" s="13"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="13"/>
+      <c r="M39" s="13"/>
+      <c r="N39" s="13"/>
+      <c r="O39" s="13"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+      <c r="R39" s="13"/>
+      <c r="S39" s="13"/>
+      <c r="T39" s="13"/>
+      <c r="AD39" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_MOE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="40" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D40" s="13"/>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
       <c r="I40" s="13"/>
-      <c r="J40" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
+      <c r="J40" s="13"/>
       <c r="K40" s="13"/>
       <c r="L40" s="13"/>
       <c r="M40" s="13"/>
-      <c r="N40" s="17">
-        <f>J40</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
+      <c r="N40" s="13"/>
       <c r="O40" s="13"/>
-      <c r="P40" t="str">
-        <f>P39</f>
-        <v>TB_MOE_DKISL3_DKW_02</v>
-      </c>
-    </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+      <c r="R40" s="13"/>
+      <c r="S40" s="13"/>
+      <c r="T40" s="13"/>
+      <c r="AD40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
       <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
       <c r="I41" s="13"/>
-      <c r="J41" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
+      <c r="J41" s="13"/>
       <c r="K41" s="13"/>
       <c r="L41" s="13"/>
       <c r="M41" s="13"/>
-      <c r="N41" s="17">
-        <f t="shared" ref="N41:N43" si="12">J41</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
+      <c r="N41" s="13"/>
       <c r="O41" s="13"/>
-      <c r="P41" t="str">
-        <f t="shared" ref="P41:P43" si="13">P40</f>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+      <c r="R41" s="13"/>
+      <c r="S41" s="13"/>
+      <c r="T41" s="13"/>
+      <c r="AD41" t="str">
+        <f>AD40</f>
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="13">
-        <v>2020</v>
-      </c>
+    <row r="42" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
       <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <v>0.98</v>
-      </c>
+      <c r="J42" s="13"/>
       <c r="K42" s="13"/>
       <c r="L42" s="13"/>
       <c r="M42" s="13"/>
-      <c r="N42" s="17">
-        <f t="shared" si="12"/>
-        <v>0.98</v>
-      </c>
+      <c r="N42" s="13"/>
       <c r="O42" s="13"/>
-      <c r="P42" t="str">
-        <f t="shared" si="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+      <c r="R42" s="13"/>
+      <c r="S42" s="13"/>
+      <c r="T42" s="13"/>
+      <c r="AD42" t="str">
+        <f t="shared" ref="AD42:AD44" si="15">AD41</f>
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="19">
-        <f t="shared" si="12"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" t="str">
-        <f t="shared" si="13"/>
+    <row r="43" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+      <c r="R43" s="13"/>
+      <c r="S43" s="13"/>
+      <c r="T43" s="13"/>
+      <c r="AD43" t="str">
+        <f t="shared" si="15"/>
+        <v>TB_MOE_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="44" spans="4:30" x14ac:dyDescent="0.3">
+      <c r="AD44" t="str">
+        <f t="shared" si="15"/>
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
@@ -3135,15 +3355,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
-  <dimension ref="C2:V43"/>
+  <dimension ref="C2:AB44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4:O43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:28" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3156,7 +3376,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3218,17 +3438,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:28" x14ac:dyDescent="0.3">
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11"/>
       <c r="I4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -3238,18 +3458,18 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="13"/>
       <c r="I5" s="13">
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13">
         <f>I5</f>
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -3259,19 +3479,22 @@
         <f>P4</f>
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E6" s="12" t="s">
+      <c r="AB5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="13"/>
       <c r="I6" s="13">
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <f t="shared" ref="K6:K8" si="0">I6</f>
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -3281,817 +3504,936 @@
         <f t="shared" ref="P6:P8" si="1">P5</f>
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2020</v>
+      <c r="AB6" t="str">
+        <f>AB5</f>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>67</v>
       </c>
       <c r="I7" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="J7" s="13"/>
+        <v>3.46</v>
+      </c>
       <c r="K7" s="13">
         <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+        <v>3.46</v>
+      </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
+      <c r="AB7" t="str">
+        <f t="shared" ref="AB7:AB9" si="2">AB6</f>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13">
+        <f>I8</f>
+        <v>0.98</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" t="str">
+        <f>P6</f>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+      <c r="AB8" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="I8" s="14">
+      <c r="F9" s="13"/>
+      <c r="I9" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
+        <f>I9</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" t="str">
-        <f t="shared" si="1"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" t="str">
+        <f>P8</f>
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="AB9" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_KRE_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="I9" s="11">
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11">
         <v>20</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f>I9</f>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17">
+        <f>J10</f>
         <v>20</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" t="s">
+        <v>53</v>
+      </c>
+      <c r="R10" s="17"/>
+      <c r="AB10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="12" t="s">
+    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="I10" s="17">
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="P10" t="str">
-        <f>P9</f>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17">
+        <f t="shared" ref="L11:L15" si="3">J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" t="str">
+        <f>P10</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+      <c r="R11" s="17"/>
+      <c r="AB11" t="str">
+        <f>AB10</f>
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+    <row r="12" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="I11" s="20">
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" ref="P11:P13" si="2">P10</f>
+      <c r="F12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12:P15" si="4">P11</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+      <c r="R12" s="17"/>
+      <c r="AB12" t="str">
+        <f t="shared" ref="AB12:AB14" si="5">AB11</f>
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="13" t="s">
+    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17">
+        <f t="shared" si="3"/>
+        <v>3.46</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+      <c r="R13" s="17"/>
+      <c r="AB13" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F14" s="13">
         <v>2020</v>
       </c>
-      <c r="I12" s="13">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13">
         <v>0.98</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
-        <f>I12</f>
-        <v>0.98</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_KRE_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="I13" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <f>I13</f>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_KRE_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11">
-        <v>50</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
-        <f t="shared" ref="L14:L23" si="3">J14</f>
-        <v>50</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <v>0.29830000000000001</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>0.29830000000000001</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" t="str">
-        <f>P14</f>
-        <v>TB_KRE_DKISL1_DKW_01</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" t="str">
-        <f t="shared" ref="P16:P18" si="4">P15</f>
-        <v>TB_KRE_DKISL1_DKW_01</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" t="str">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" t="str">
         <f t="shared" si="4"/>
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="14" t="s">
+      <c r="R14" s="17"/>
+      <c r="AB14" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_KRE_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="15" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
+      <c r="F15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
         <f t="shared" si="3"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" t="str">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" t="str">
         <f t="shared" si="4"/>
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="11" t="s">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="AB15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11">
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="11">
         <v>20</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <f t="shared" si="3"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="17">
+        <f>J16</f>
         <v>20</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="AB16" t="str">
+        <f>AB15</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="17" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13">
-        <f t="shared" si="3"/>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" t="str">
-        <f>P19</f>
-        <v>TB_KRE_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="17">
+        <f t="shared" ref="M17:M21" si="6">J17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" t="str">
+        <f>P16</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="AB17" t="str">
+        <f t="shared" ref="AB17:AB19" si="7">AB16</f>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="20">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18">
-        <f t="shared" si="3"/>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" t="str">
-        <f t="shared" ref="P21:P23" si="5">P20</f>
-        <v>TB_KRE_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P21" si="8">P17</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="AB18" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17">
+        <f t="shared" si="6"/>
+        <v>3.46</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="AB19" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_KRE_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="20" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F20" s="13">
         <v>2020</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13">
         <v>0.98</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_KRE_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14">
-        <f t="shared" si="3"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_KRE_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11">
-        <v>50</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15">
-        <f>J24</f>
-        <v>50</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="17">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13">
-        <f>J25</f>
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" t="str">
-        <f>P24</f>
-        <v>TB_KRE_DKISL2_DKW_01</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="17">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:M28" si="6">J26</f>
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="13"/>
-      <c r="P26" t="str">
-        <f t="shared" ref="P26:P28" si="7">P25</f>
-        <v>TB_KRE_DKISL2_DKW_01</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="13">
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17">
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="13"/>
-      <c r="P27" t="str">
-        <f t="shared" si="7"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
-    </row>
-    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="14" t="s">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="AB20" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="13">
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="17">
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" t="str">
+        <f t="shared" si="8"/>
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="AB21" t="str">
+        <f>AB20</f>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="22" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="11">
+      <c r="F22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11">
         <v>20</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15">
-        <f>J29</f>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="17">
+        <f>J22</f>
         <v>20</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="12" t="s">
+      <c r="O22" s="17"/>
+      <c r="P22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="AB22" t="str">
+        <f t="shared" ref="AB22:AB24" si="9">AB21</f>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="23" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="17">
-        <f>J30</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" t="str">
-        <f>P29</f>
-        <v>TB_KRE_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="12" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17">
+        <f t="shared" ref="N23:N27" si="10">J23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" t="str">
+        <f>P22</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="AB23" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31:M33" si="8">J31</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" t="str">
-        <f t="shared" ref="P31:P33" si="9">P30</f>
-        <v>TB_KRE_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" t="str">
+        <f t="shared" ref="P24:P27" si="11">P23</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="AB24" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_KRE_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="25" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="13">
+        <v>3.46</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
+        <f t="shared" si="10"/>
+        <v>3.46</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="AB25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F26" s="13">
         <v>2020</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13">
         <v>0.98</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_KRE_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="17">
-        <f t="shared" si="8"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_KRE_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="11">
-        <v>50</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
-        <f>J34</f>
-        <v>50</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="17">
-        <v>5370</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13">
-        <f>J35</f>
-        <v>5370</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" t="str">
-        <f>P34</f>
-        <v>TB_KRE_DKISL3_DKW_01</v>
-      </c>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="17">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13">
-        <f t="shared" ref="N36:N38" si="10">J36</f>
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" t="str">
-        <f t="shared" ref="P36:P38" si="11">P35</f>
-        <v>TB_KRE_DKISL3_DKW_01</v>
-      </c>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17">
         <f t="shared" si="10"/>
         <v>0.98</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" t="str">
+      <c r="O26" s="17"/>
+      <c r="P26" t="str">
         <f t="shared" si="11"/>
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
-    </row>
-    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="14" t="s">
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="AB26" t="str">
+        <f>AB25</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="27" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13">
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17">
         <f t="shared" si="10"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" t="str">
+      <c r="O27" s="17"/>
+      <c r="P27" t="str">
         <f t="shared" si="11"/>
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="11">
-        <v>20</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
-        <f>J39</f>
-        <v>20</v>
-      </c>
-      <c r="O39" s="15"/>
-      <c r="P39" t="s">
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="AB27" t="str">
+        <f t="shared" ref="AB27:AB29" si="12">AB26</f>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="AB28" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="AB29" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_KRE_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="30" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="AB30" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="AB31" t="str">
+        <f>AB30</f>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="32" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="AB32" t="str">
+        <f t="shared" ref="AB32:AB34" si="13">AB31</f>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="AB33" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="34" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="AB34" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_KRE_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="35" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="AB35" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="AB36" t="str">
+        <f>AB35</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="37" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="AB37" t="str">
+        <f t="shared" ref="AB37:AB39" si="14">AB36</f>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="38" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="AB38" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="39" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="AB39" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_KRE_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="40" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="AB40" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="17">
-        <f>J40</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" t="str">
-        <f>P39</f>
+    <row r="41" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="AB41" t="str">
+        <f>AB40</f>
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="17">
-        <f t="shared" ref="N41:N43" si="12">J41</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" t="str">
-        <f t="shared" ref="P41:P43" si="13">P40</f>
+    <row r="42" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="AB42" t="str">
+        <f t="shared" ref="AB42:AB44" si="15">AB41</f>
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="17">
-        <f t="shared" si="12"/>
-        <v>0.98</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" t="str">
-        <f t="shared" si="13"/>
+    <row r="43" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="AB43" t="str">
+        <f t="shared" si="15"/>
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="19">
-        <f t="shared" si="12"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" t="str">
-        <f t="shared" si="13"/>
+    <row r="44" spans="5:28" x14ac:dyDescent="0.3">
+      <c r="AB44" t="str">
+        <f t="shared" si="15"/>
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
@@ -4103,15 +4445,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4FCC-23F0-4F3B-9CD2-8D3544B74DA5}">
-  <dimension ref="C2:V43"/>
+  <dimension ref="C2:AA44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AC45" sqref="AC45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4124,7 +4466,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4186,17 +4528,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="11"/>
       <c r="I4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -4206,18 +4548,18 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E5" s="12" t="s">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="F5" s="13"/>
       <c r="I5" s="13">
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="J5" s="13"/>
       <c r="K5" s="13">
         <f>I5</f>
-        <v>8.9499999999999996E-2</v>
+        <v>0</v>
       </c>
       <c r="L5" s="13"/>
       <c r="M5" s="13"/>
@@ -4227,19 +4569,22 @@
         <f>P4</f>
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E6" s="12" t="s">
+      <c r="AA5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="F6" s="13"/>
       <c r="I6" s="13">
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
         <f t="shared" ref="K6:K8" si="0">I6</f>
-        <v>6.0000000000000002E-5</v>
+        <v>0</v>
       </c>
       <c r="L6" s="13"/>
       <c r="M6" s="13"/>
@@ -4249,817 +4594,942 @@
         <f t="shared" ref="P6:P8" si="1">P5</f>
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E7" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I7" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13">
-        <f t="shared" si="0"/>
-        <v>0.98</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
+      <c r="AA6" t="str">
+        <f>AA5</f>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="17">
+        <v>7.12</v>
+      </c>
+      <c r="K7">
+        <f>I7</f>
+        <v>7.12</v>
+      </c>
       <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="8" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E8" s="14" t="s">
+      <c r="AA7" t="str">
+        <f t="shared" ref="AA7:AA9" si="2">AA6</f>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13">
+        <f>I8</f>
+        <v>0.98</v>
+      </c>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+      <c r="P8" t="str">
+        <f>P6</f>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+      <c r="AA8" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="I8" s="14">
+      <c r="F9" s="13"/>
+      <c r="I9" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="13">
-        <f t="shared" si="0"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13">
+        <f>I9</f>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
-      <c r="P8" t="str">
-        <f t="shared" si="1"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+      <c r="P9" t="str">
+        <f>P8</f>
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
-    </row>
-    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E9" s="11" t="s">
+      <c r="R9" s="17"/>
+      <c r="AA9" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_AMM_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="I9" s="11">
+      <c r="F10" s="11"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="11">
         <v>20</v>
       </c>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11">
-        <f>I9</f>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17">
+        <f>J10</f>
         <v>20</v>
       </c>
-      <c r="P9" t="s">
+      <c r="M10" s="17"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="AA10" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E10" s="12" t="s">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="I10" s="17">
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="P10" t="str">
-        <f>P9</f>
+      <c r="F11" s="13"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17">
+        <f t="shared" ref="L11:L15" si="3">J11</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" t="str">
+        <f>P10</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="AA11" t="str">
+        <f>AA10</f>
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E11" s="12" t="s">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F11" s="13"/>
-      <c r="I11" s="20">
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="J11" s="13"/>
-      <c r="K11" s="17">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="P11" t="str">
-        <f t="shared" ref="P11:P13" si="2">P10</f>
+      <c r="F12" s="13"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="13">
+        <v>0</v>
+      </c>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="17"/>
+      <c r="N12" s="17"/>
+      <c r="O12" s="17"/>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12:P15" si="4">P11</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+      <c r="Q12" s="17"/>
+      <c r="R12" s="17"/>
+      <c r="AA12" t="str">
+        <f t="shared" ref="AA12:AA14" si="5">AA11</f>
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E12" s="13" t="s">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17">
+        <v>7.12</v>
+      </c>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17">
+        <f t="shared" si="3"/>
+        <v>7.12</v>
+      </c>
+      <c r="M13" s="17"/>
+      <c r="N13" s="17"/>
+      <c r="O13" s="17"/>
+      <c r="P13" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+      <c r="Q13" s="17"/>
+      <c r="R13" s="17"/>
+      <c r="AA13" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="13">
+      <c r="F14" s="13">
         <v>2020</v>
       </c>
-      <c r="I12" s="13">
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="13">
         <v>0.98</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13">
-        <f>I12</f>
-        <v>0.98</v>
-      </c>
-      <c r="P12" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_AMM_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="13" spans="3:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14"/>
-      <c r="I13" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14">
-        <f>I13</f>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-      <c r="O13" s="14"/>
-      <c r="P13" t="str">
-        <f t="shared" si="2"/>
-        <v>TB_AMM_DKISLBH_DKE_02</v>
-      </c>
-    </row>
-    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E14" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="11">
-        <v>50</v>
-      </c>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13">
-        <f t="shared" ref="L14:L23" si="3">J14</f>
-        <v>50</v>
-      </c>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E15" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
-        <v>0.29830000000000001</v>
-      </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13">
-        <f t="shared" si="3"/>
-        <v>0.29830000000000001</v>
-      </c>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" t="str">
-        <f>P14</f>
-        <v>TB_AMM_DKISL1_DKW_01</v>
-      </c>
-    </row>
-    <row r="16" spans="3:22" x14ac:dyDescent="0.25">
-      <c r="E16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13">
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="K16" s="16"/>
-      <c r="L16" s="16">
-        <f t="shared" si="3"/>
-        <v>1.9000000000000001E-4</v>
-      </c>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" t="str">
-        <f t="shared" ref="P16:P18" si="4">P15</f>
-        <v>TB_AMM_DKISL1_DKW_01</v>
-      </c>
-    </row>
-    <row r="17" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E17" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F17" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K17" s="16"/>
-      <c r="L17" s="16">
+      <c r="K14" s="17"/>
+      <c r="L14" s="17">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="13"/>
-      <c r="P17" t="str">
+      <c r="M14" s="17"/>
+      <c r="N14" s="17"/>
+      <c r="O14" s="17"/>
+      <c r="P14" t="str">
         <f t="shared" si="4"/>
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
-    </row>
-    <row r="18" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E18" s="14" t="s">
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="AA14" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_AMM_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="15" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14">
+      <c r="F15" s="13"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14">
+      <c r="K15" s="17"/>
+      <c r="L15" s="17">
         <f t="shared" si="3"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
-      <c r="O18" s="14"/>
-      <c r="P18" t="str">
+      <c r="M15" s="17"/>
+      <c r="N15" s="17"/>
+      <c r="O15" s="17"/>
+      <c r="P15" t="str">
         <f t="shared" si="4"/>
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
-    </row>
-    <row r="19" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E19" s="11" t="s">
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="AA15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+      <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="11"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="11">
+      <c r="F16" s="11"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="11">
         <v>20</v>
       </c>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13">
-        <f t="shared" si="3"/>
+      <c r="K16" s="23"/>
+      <c r="L16" s="23"/>
+      <c r="M16" s="17">
+        <f>J16</f>
         <v>20</v>
       </c>
-      <c r="M19" s="15"/>
-      <c r="N19" s="15"/>
-      <c r="O19" s="15"/>
-      <c r="P19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E20" s="12" t="s">
+      <c r="N16" s="17"/>
+      <c r="O16" s="17"/>
+      <c r="P16" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="AA16" t="str">
+        <f>AA15</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="17" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="17">
-        <f>I10</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13">
-        <f t="shared" si="3"/>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" t="str">
-        <f>P19</f>
-        <v>TB_AMM_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="21" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E21" s="12" t="s">
+      <c r="F17" s="13"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="13">
+        <v>0</v>
+      </c>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="17">
+        <f t="shared" ref="M17:M21" si="6">J17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" t="str">
+        <f>P16</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="AA17" t="str">
+        <f t="shared" ref="AA17:AA19" si="7">AA16</f>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F21" s="13"/>
-      <c r="I21" s="13"/>
-      <c r="J21" s="20">
-        <f>I11</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K21" s="16"/>
-      <c r="L21" s="18">
-        <f t="shared" si="3"/>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="M21" s="16"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="13"/>
-      <c r="P21" t="str">
-        <f t="shared" ref="P21:P23" si="5">P20</f>
-        <v>TB_AMM_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="22" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E22" s="13" t="s">
+      <c r="F18" s="13"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="17"/>
+      <c r="L18" s="17"/>
+      <c r="M18" s="17">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="17"/>
+      <c r="O18" s="17"/>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P21" si="8">P17</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q18" s="17"/>
+      <c r="R18" s="17"/>
+      <c r="AA18" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="17"/>
+      <c r="J19" s="17">
+        <v>7.12</v>
+      </c>
+      <c r="K19" s="17"/>
+      <c r="L19" s="17"/>
+      <c r="M19" s="17">
+        <f t="shared" si="6"/>
+        <v>7.12</v>
+      </c>
+      <c r="N19" s="17"/>
+      <c r="O19" s="17"/>
+      <c r="P19" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="AA19" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_AMM_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="20" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F20" s="13">
         <v>2020</v>
       </c>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13">
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="13">
         <v>0.98</v>
       </c>
-      <c r="K22" s="16"/>
-      <c r="L22" s="18">
-        <f t="shared" si="3"/>
-        <v>0.98</v>
-      </c>
-      <c r="M22" s="16"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_AMM_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="23" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E23" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14">
-        <f t="shared" si="3"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
-      <c r="O23" s="14"/>
-      <c r="P23" t="str">
-        <f t="shared" si="5"/>
-        <v>TB_AMM_DKISL1_DKW_02</v>
-      </c>
-    </row>
-    <row r="24" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E24" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="I24" s="15"/>
-      <c r="J24" s="11">
-        <v>50</v>
-      </c>
-      <c r="K24" s="15"/>
-      <c r="L24" s="15"/>
-      <c r="M24" s="15">
-        <f>J24</f>
-        <v>50</v>
-      </c>
-      <c r="N24" s="15"/>
-      <c r="O24" s="15"/>
-      <c r="P24" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E25" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="17">
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="K25" s="13"/>
-      <c r="L25" s="13"/>
-      <c r="M25" s="13">
-        <f>J25</f>
-        <v>0.38779999999999998</v>
-      </c>
-      <c r="N25" s="13"/>
-      <c r="O25" s="13"/>
-      <c r="P25" t="str">
-        <f>P24</f>
-        <v>TB_AMM_DKISL2_DKW_01</v>
-      </c>
-    </row>
-    <row r="26" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E26" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="17">
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="13">
-        <f t="shared" ref="M26:M28" si="6">J26</f>
-        <v>2.4000000000000001E-4</v>
-      </c>
-      <c r="N26" s="16"/>
-      <c r="O26" s="13"/>
-      <c r="P26" t="str">
-        <f t="shared" ref="P26:P28" si="7">P25</f>
-        <v>TB_AMM_DKISL2_DKW_01</v>
-      </c>
-    </row>
-    <row r="27" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E27" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I27" s="13"/>
-      <c r="J27" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K27" s="16"/>
-      <c r="L27" s="16"/>
-      <c r="M27" s="13">
+      <c r="K20" s="17"/>
+      <c r="L20" s="17"/>
+      <c r="M20" s="17">
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
-      <c r="N27" s="16"/>
-      <c r="O27" s="13"/>
-      <c r="P27" t="str">
-        <f t="shared" si="7"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="17"/>
+      <c r="P20" t="str">
+        <f t="shared" si="8"/>
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
-    </row>
-    <row r="28" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E28" s="14" t="s">
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="AA20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="14"/>
-      <c r="I28" s="14"/>
-      <c r="J28" s="14">
+      <c r="F21" s="13"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K28" s="14"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="13">
+      <c r="K21" s="23"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="17">
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="N28" s="14"/>
-      <c r="O28" s="14"/>
-      <c r="P28" t="str">
-        <f t="shared" si="7"/>
+      <c r="N21" s="17"/>
+      <c r="O21" s="17"/>
+      <c r="P21" t="str">
+        <f t="shared" si="8"/>
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
-    </row>
-    <row r="29" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E29" s="11" t="s">
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="AA21" t="str">
+        <f>AA20</f>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="22" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F29" s="11"/>
-      <c r="I29" s="15"/>
-      <c r="J29" s="11">
+      <c r="F22" s="11"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="11">
         <v>20</v>
       </c>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15">
-        <f>J29</f>
+      <c r="K22" s="23"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="17">
+        <f>J22</f>
         <v>20</v>
       </c>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="30" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E30" s="12" t="s">
+      <c r="O22" s="17"/>
+      <c r="P22" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="AA22" t="str">
+        <f t="shared" ref="AA22:AA24" si="9">AA21</f>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="23" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E23" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F30" s="13"/>
-      <c r="I30" s="13"/>
-      <c r="J30" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K30" s="13"/>
-      <c r="L30" s="13"/>
-      <c r="M30" s="17">
-        <f>J30</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="N30" s="13"/>
-      <c r="O30" s="13"/>
-      <c r="P30" t="str">
-        <f>P29</f>
-        <v>TB_AMM_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="31" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E31" s="12" t="s">
+      <c r="F23" s="13"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="13">
+        <v>0</v>
+      </c>
+      <c r="K23" s="17"/>
+      <c r="L23" s="17"/>
+      <c r="M23" s="17"/>
+      <c r="N23" s="17">
+        <f t="shared" ref="N23:N27" si="10">J23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="17"/>
+      <c r="P23" t="str">
+        <f>P22</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="AA23" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E24" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F31" s="13"/>
-      <c r="I31" s="13"/>
-      <c r="J31" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K31" s="13"/>
-      <c r="L31" s="13"/>
-      <c r="M31" s="17">
-        <f t="shared" ref="M31:M33" si="8">J31</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="N31" s="13"/>
-      <c r="O31" s="13"/>
-      <c r="P31" t="str">
-        <f t="shared" ref="P31:P33" si="9">P30</f>
-        <v>TB_AMM_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="32" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E32" s="13" t="s">
+      <c r="F24" s="13"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="13">
+        <v>0</v>
+      </c>
+      <c r="K24" s="17"/>
+      <c r="L24" s="17"/>
+      <c r="M24" s="17"/>
+      <c r="N24" s="17">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O24" s="17"/>
+      <c r="P24" t="str">
+        <f t="shared" ref="P24:P27" si="11">P23</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="AA24" t="str">
+        <f t="shared" si="9"/>
+        <v>TB_AMM_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="25" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17">
+        <v>7.12</v>
+      </c>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+      <c r="N25" s="17">
+        <f t="shared" si="10"/>
+        <v>7.12</v>
+      </c>
+      <c r="O25" s="17"/>
+      <c r="P25" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="AA25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="13">
+      <c r="F26" s="13">
         <v>2020</v>
       </c>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13">
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="13">
         <v>0.98</v>
       </c>
-      <c r="K32" s="13"/>
-      <c r="L32" s="13"/>
-      <c r="M32" s="17">
-        <f t="shared" si="8"/>
-        <v>0.98</v>
-      </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_AMM_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="33" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E33" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="17">
-        <f t="shared" si="8"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="N33" s="14"/>
-      <c r="O33" s="14"/>
-      <c r="P33" t="str">
-        <f t="shared" si="9"/>
-        <v>TB_AMM_DKISL2_DKW_02</v>
-      </c>
-    </row>
-    <row r="34" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E34" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="11"/>
-      <c r="I34" s="15"/>
-      <c r="J34" s="11">
-        <v>50</v>
-      </c>
-      <c r="K34" s="15"/>
-      <c r="L34" s="15"/>
-      <c r="M34" s="15"/>
-      <c r="N34" s="15">
-        <f>J34</f>
-        <v>50</v>
-      </c>
-      <c r="O34" s="15"/>
-      <c r="P34" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F35" s="13"/>
-      <c r="I35" s="13"/>
-      <c r="J35" s="17">
-        <v>5370</v>
-      </c>
-      <c r="K35" s="13"/>
-      <c r="L35" s="13"/>
-      <c r="M35" s="13"/>
-      <c r="N35" s="13">
-        <f>J35</f>
-        <v>5370</v>
-      </c>
-      <c r="O35" s="13"/>
-      <c r="P35" t="str">
-        <f>P34</f>
-        <v>TB_AMM_DKISL3_DKW_01</v>
-      </c>
-    </row>
-    <row r="36" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E36" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F36" s="13"/>
-      <c r="I36" s="13"/>
-      <c r="J36" s="17">
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="K36" s="13"/>
-      <c r="L36" s="13"/>
-      <c r="M36" s="13"/>
-      <c r="N36" s="13">
-        <f t="shared" ref="N36:N38" si="10">J36</f>
-        <v>3.4000000000000002E-4</v>
-      </c>
-      <c r="O36" s="13"/>
-      <c r="P36" t="str">
-        <f t="shared" ref="P36:P38" si="11">P35</f>
-        <v>TB_AMM_DKISL3_DKW_01</v>
-      </c>
-    </row>
-    <row r="37" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E37" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I37" s="13"/>
-      <c r="J37" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K37" s="13"/>
-      <c r="L37" s="13"/>
-      <c r="M37" s="13"/>
-      <c r="N37" s="13">
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="17"/>
+      <c r="N26" s="17">
         <f t="shared" si="10"/>
         <v>0.98</v>
       </c>
-      <c r="O37" s="13"/>
-      <c r="P37" t="str">
+      <c r="O26" s="17"/>
+      <c r="P26" t="str">
         <f t="shared" si="11"/>
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
-    </row>
-    <row r="38" spans="5:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E38" s="14" t="s">
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="AA26" t="str">
+        <f>AA25</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="27" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="14"/>
-      <c r="I38" s="14"/>
-      <c r="J38" s="14">
+      <c r="F27" s="13"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K38" s="14"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
-      <c r="N38" s="13">
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="17"/>
+      <c r="N27" s="17">
         <f t="shared" si="10"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O38" s="14"/>
-      <c r="P38" t="str">
+      <c r="O27" s="17"/>
+      <c r="P27" t="str">
         <f t="shared" si="11"/>
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
-    </row>
-    <row r="39" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E39" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F39" s="11"/>
-      <c r="I39" s="15"/>
-      <c r="J39" s="11">
-        <v>20</v>
-      </c>
-      <c r="K39" s="15"/>
-      <c r="L39" s="15"/>
-      <c r="M39" s="15"/>
-      <c r="N39" s="15">
-        <f>J39</f>
-        <v>20</v>
-      </c>
-      <c r="O39" s="15"/>
-      <c r="P39" t="s">
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="AA27" t="str">
+        <f t="shared" ref="AA27:AA29" si="12">AA26</f>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="28" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17"/>
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17"/>
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="AA28" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="29" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17"/>
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17"/>
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="AA29" t="str">
+        <f t="shared" si="12"/>
+        <v>TB_AMM_DKISL2_DKW_01</v>
+      </c>
+    </row>
+    <row r="30" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="17"/>
+      <c r="J30" s="17"/>
+      <c r="K30" s="17"/>
+      <c r="L30" s="17"/>
+      <c r="M30" s="17"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="17"/>
+      <c r="P30" s="17"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="AA30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="20"/>
+      <c r="K31" s="17"/>
+      <c r="L31" s="17"/>
+      <c r="M31" s="17"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="AA31" t="str">
+        <f>AA30</f>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="32" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="AA32" t="str">
+        <f t="shared" ref="AA32:AA34" si="13">AA31</f>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="33" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="AA33" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="34" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="17"/>
+      <c r="M34" s="17"/>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="AA34" t="str">
+        <f t="shared" si="13"/>
+        <v>TB_AMM_DKISL2_DKW_02</v>
+      </c>
+    </row>
+    <row r="35" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+      <c r="N35" s="17"/>
+      <c r="O35" s="17"/>
+      <c r="P35" s="17"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="AA35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="AA36" t="str">
+        <f>AA35</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="37" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="17"/>
+      <c r="P37" s="17"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="AA37" t="str">
+        <f t="shared" ref="AA37:AA39" si="14">AA36</f>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="38" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+      <c r="N38" s="17"/>
+      <c r="O38" s="17"/>
+      <c r="P38" s="17"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="AA38" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="39" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+      <c r="N39" s="17"/>
+      <c r="O39" s="17"/>
+      <c r="P39" s="17"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="AA39" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_AMM_DKISL3_DKW_01</v>
+      </c>
+    </row>
+    <row r="40" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+      <c r="N40" s="17"/>
+      <c r="O40" s="17"/>
+      <c r="P40" s="17"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="AA40" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="F40" s="13"/>
-      <c r="I40" s="13"/>
-      <c r="J40" s="17">
-        <f>J20</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="K40" s="13"/>
-      <c r="L40" s="13"/>
-      <c r="M40" s="13"/>
-      <c r="N40" s="17">
-        <f>J40</f>
-        <v>3.1329000000000001E-3</v>
-      </c>
-      <c r="O40" s="13"/>
-      <c r="P40" t="str">
-        <f>P39</f>
+    <row r="41" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+      <c r="N41" s="17"/>
+      <c r="O41" s="17"/>
+      <c r="P41" s="17"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="AA41" t="str">
+        <f>AA40</f>
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="41" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E41" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F41" s="13"/>
-      <c r="I41" s="13"/>
-      <c r="J41" s="20">
-        <f>J21</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="K41" s="13"/>
-      <c r="L41" s="13"/>
-      <c r="M41" s="13"/>
-      <c r="N41" s="17">
-        <f t="shared" ref="N41:N43" si="12">J41</f>
-        <v>1.5659999999999999E-5</v>
-      </c>
-      <c r="O41" s="13"/>
-      <c r="P41" t="str">
-        <f t="shared" ref="P41:P43" si="13">P40</f>
+    <row r="42" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+      <c r="N42" s="17"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="17"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="AA42" t="str">
+        <f t="shared" ref="AA42:AA44" si="15">AA41</f>
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E42" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="F42" s="13">
-        <v>2020</v>
-      </c>
-      <c r="I42" s="13"/>
-      <c r="J42" s="13">
-        <v>0.98</v>
-      </c>
-      <c r="K42" s="13"/>
-      <c r="L42" s="13"/>
-      <c r="M42" s="13"/>
-      <c r="N42" s="17">
-        <f t="shared" si="12"/>
-        <v>0.98</v>
-      </c>
-      <c r="O42" s="13"/>
-      <c r="P42" t="str">
-        <f t="shared" si="13"/>
+    <row r="43" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="AA43" t="str">
+        <f t="shared" si="15"/>
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="5:16" x14ac:dyDescent="0.25">
-      <c r="E43" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F43" s="14"/>
-      <c r="I43" s="14"/>
-      <c r="J43" s="14">
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="14"/>
-      <c r="M43" s="14"/>
-      <c r="N43" s="19">
-        <f t="shared" si="12"/>
-        <v>3.1536000000000002E-2</v>
-      </c>
-      <c r="O43" s="14"/>
-      <c r="P43" t="str">
-        <f t="shared" si="13"/>
+    <row r="44" spans="5:27" x14ac:dyDescent="0.3">
+      <c r="AA44" t="str">
+        <f t="shared" si="15"/>
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC743C71-D65F-426C-9927-4FB86B3B8D7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16361F-88ED-4A7C-AE47-B553CB50EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="41496" windowHeight="16896" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5520" yWindow="2616" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="MOE_SUP_TRADE" sheetId="4" r:id="rId3"/>
     <sheet name="KRE_SUP_TRADE" sheetId="5" r:id="rId4"/>
     <sheet name="AMM_SUP_TRADE" sheetId="6" r:id="rId5"/>
+    <sheet name="CO2_SUP_TRADE" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -238,8 +239,59 @@
 </comments>
 </file>
 
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Maurizio Gargiulo</author>
+    <author>Gary Goldstein</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{8BE622A1-C090-4F02-BE06-BCDD3D8278B2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Insert Table</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{14372D9E-7196-4673-829F-3ABF3F999546}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon technology set + topology + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{999894EA-5A29-4C06-B887-DEDD13E51398}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Define the qualifiers based upon commodity set + name + descriptions, according to both include and exclude specifications.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="76">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -443,6 +495,30 @@
   </si>
   <si>
     <t>VAROM</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_CO2_DKISL3_DKW_02</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1153,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:N43"/>
+      <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2312,7 +2388,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <f t="shared" ref="K6" si="0">I6</f>
         <v>0</v>
       </c>
       <c r="L6" s="13"/>
@@ -2320,7 +2396,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <f t="shared" ref="P6:P7" si="1">P5</f>
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
       <c r="AD6" t="str">
@@ -3357,8 +3433,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
   <dimension ref="C2:AB44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S35" sqref="S35"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3493,7 +3569,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <f t="shared" ref="K6:K7" si="0">I6</f>
         <v>0</v>
       </c>
       <c r="L6" s="13"/>
@@ -3501,7 +3577,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <f t="shared" ref="P6:P7" si="1">P5</f>
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
       <c r="AB6" t="str">
@@ -4448,7 +4524,7 @@
   <dimension ref="C2:AA44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+      <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4583,7 +4659,7 @@
       </c>
       <c r="J6" s="13"/>
       <c r="K6" s="13">
-        <f t="shared" ref="K6:K8" si="0">I6</f>
+        <f t="shared" ref="K6" si="0">I6</f>
         <v>0</v>
       </c>
       <c r="L6" s="13"/>
@@ -4591,7 +4667,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
       <c r="P6" t="str">
-        <f t="shared" ref="P6:P8" si="1">P5</f>
+        <f t="shared" ref="P6:P7" si="1">P5</f>
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
       <c r="AA6" t="str">
@@ -5537,4 +5613,832 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
+  <dimension ref="B2:U51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L46" sqref="L46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" s="2"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+      <c r="Q2" s="3"/>
+      <c r="R2" s="3"/>
+      <c r="S2" s="3"/>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+    </row>
+    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="S3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="H4">
+        <v>40</v>
+      </c>
+      <c r="J4">
+        <f>H4</f>
+        <v>40</v>
+      </c>
+      <c r="O4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J15" si="0">H5</f>
+        <v>0</v>
+      </c>
+      <c r="O5" t="str">
+        <f>O4</f>
+        <v>TB_CO2_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D6" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" t="str">
+        <f t="shared" ref="O6:O9" si="1">O5</f>
+        <v>TB_CO2_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O7" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_CO2_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2020</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="O8" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_CO2_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="H9" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O9" t="str">
+        <f t="shared" si="1"/>
+        <v>TB_CO2_DKISLBH_DKE_01</v>
+      </c>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D10" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="H10">
+        <v>40</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O11" t="str">
+        <f>O10</f>
+        <v>TB_CO2_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D12" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O12" t="str">
+        <f t="shared" ref="O12:O15" si="2">O11</f>
+        <v>TB_CO2_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O13" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_CO2_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D14" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2020</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="0"/>
+        <v>0.98</v>
+      </c>
+      <c r="O14" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_CO2_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="H15" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="0"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O15" t="str">
+        <f t="shared" si="2"/>
+        <v>TB_CO2_DKISLBH_DKE_02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+      <c r="D16" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="I16">
+        <v>40</v>
+      </c>
+      <c r="K16">
+        <f>I16</f>
+        <v>40</v>
+      </c>
+      <c r="O16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ref="K17:K27" si="3">I17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" t="str">
+        <f>O16</f>
+        <v>TB_CO2_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D18" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="13"/>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ref="O18:O21" si="4">O17</f>
+        <v>TB_CO2_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_CO2_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="O20" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_CO2_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="13"/>
+      <c r="I21" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O21" t="str">
+        <f t="shared" si="4"/>
+        <v>TB_CO2_DKISL1_DKW_01</v>
+      </c>
+    </row>
+    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D22" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="I22">
+        <v>40</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+      <c r="O22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D23" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E23" s="13"/>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O23" t="str">
+        <f>O22</f>
+        <v>TB_CO2_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D24" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E24" s="13"/>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O24" t="str">
+        <f t="shared" ref="O24:O27" si="5">O23</f>
+        <v>TB_CO2_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="O25" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_CO2_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D26" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="K26">
+        <f t="shared" si="3"/>
+        <v>0.98</v>
+      </c>
+      <c r="O26" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_CO2_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="27" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D27" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="13"/>
+      <c r="I27" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O27" t="str">
+        <f t="shared" si="5"/>
+        <v>TB_CO2_DKISL1_DKW_02</v>
+      </c>
+    </row>
+    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D28" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" s="11"/>
+      <c r="I28">
+        <v>40</v>
+      </c>
+      <c r="L28">
+        <f>I28</f>
+        <v>40</v>
+      </c>
+      <c r="O28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D29" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="13"/>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" ref="L29:L39" si="6">I29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="13"/>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D32" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="33" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D33" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E33" s="13"/>
+      <c r="I33" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L33">
+        <f t="shared" si="6"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D34" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" s="11"/>
+      <c r="I34">
+        <v>40</v>
+      </c>
+      <c r="L34">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="O34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D35" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E35" s="13"/>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E36" s="13"/>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D38" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E38" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="L38">
+        <f t="shared" si="6"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D39" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E39" s="13"/>
+      <c r="I39" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="6"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D40" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" s="11"/>
+      <c r="I40">
+        <v>40</v>
+      </c>
+      <c r="M40">
+        <f>I40</f>
+        <v>40</v>
+      </c>
+      <c r="O40" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D41" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <f t="shared" ref="M41:M51" si="7">I41</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D44" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I44" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="7"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D45" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="I45" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="7"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D46" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="11"/>
+      <c r="I46">
+        <v>40</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="7"/>
+        <v>40</v>
+      </c>
+      <c r="O46" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D47" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E47" s="13"/>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
+      <c r="D48" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E48" s="13"/>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>67</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D50" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="13">
+        <v>2020</v>
+      </c>
+      <c r="I50" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="7"/>
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="D51" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="13"/>
+      <c r="I51" s="13">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="7"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16361F-88ED-4A7C-AE47-B553CB50EA2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0D019-133C-4530-AB4E-8A03B6CF4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5520" yWindow="2616" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8628" yWindow="3696" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -525,8 +525,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -706,7 +708,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -740,6 +742,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1152,8 +1156,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1540,7 +1544,7 @@
         <v>1.9000000000000001E-4</v>
       </c>
       <c r="J16" s="16"/>
-      <c r="K16" s="16">
+      <c r="K16" s="25">
         <f t="shared" si="2"/>
         <v>1.9000000000000001E-4</v>
       </c>
@@ -1668,7 +1672,7 @@
         <v>1.5659999999999999E-5</v>
       </c>
       <c r="J21" s="16"/>
-      <c r="K21" s="18">
+      <c r="K21" s="26">
         <f t="shared" si="2"/>
         <v>1.5659999999999999E-5</v>
       </c>
@@ -2020,14 +2024,14 @@
       <c r="G35" s="13"/>
       <c r="H35" s="13"/>
       <c r="I35" s="17">
-        <v>5370</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="J35" s="13"/>
       <c r="K35" s="13"/>
       <c r="L35" s="13"/>
       <c r="M35" s="13">
         <f>I35</f>
-        <v>5370</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="N35" s="13"/>
       <c r="O35" s="13" t="str">
@@ -2252,7 +2256,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631640E5-5850-40C9-881C-CA46D9462D7F}">
   <dimension ref="C2:AD44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
@@ -3433,7 +3437,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
   <dimension ref="C2:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4FCC-23F0-4F3B-9CD2-8D3544B74DA5}">
   <dimension ref="C2:AA44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:I9"/>
     </sheetView>
   </sheetViews>
@@ -5619,7 +5623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
   <dimension ref="B2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A29" workbookViewId="0">
       <selection activeCell="L46" sqref="L46"/>
     </sheetView>
   </sheetViews>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FC0D019-133C-4530-AB4E-8A03B6CF4792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A35C81-2B4F-4E2E-92CB-834B377FAD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8628" yWindow="3696" windowWidth="30960" windowHeight="12204" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8628" yWindow="3696" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -527,8 +527,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.00000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -742,8 +742,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1156,7 +1156,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:U43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
@@ -4528,7 +4528,7 @@
   <dimension ref="C2:AA44"/>
   <sheetViews>
     <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:I9"/>
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5623,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
   <dimension ref="B2:U51"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="L46" sqref="L46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S53" sqref="S53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6140,6 +6140,10 @@
         <f t="shared" ref="L29:L39" si="6">I29</f>
         <v>0</v>
       </c>
+      <c r="O29" t="str">
+        <f>O28</f>
+        <v>TB_CO2_DKISL2_DKW_01</v>
+      </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
@@ -6153,6 +6157,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O30" t="str">
+        <f t="shared" ref="O30:O33" si="7">O29</f>
+        <v>TB_CO2_DKISL2_DKW_01</v>
+      </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
@@ -6165,6 +6173,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O31" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_CO2_DKISL2_DKW_01</v>
+      </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D32" s="13" t="s">
@@ -6180,6 +6192,10 @@
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
+      <c r="O32" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_CO2_DKISL2_DKW_01</v>
+      </c>
     </row>
     <row r="33" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="13" t="s">
@@ -6193,6 +6209,10 @@
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
+      <c r="O33" t="str">
+        <f t="shared" si="7"/>
+        <v>TB_CO2_DKISL2_DKW_01</v>
+      </c>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D34" s="11" t="s">
@@ -6222,6 +6242,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O35" t="str">
+        <f>O34</f>
+        <v>TB_CO2_DKISL2_DKW_02</v>
+      </c>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D36" s="17" t="s">
@@ -6235,6 +6259,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O36" t="str">
+        <f t="shared" ref="O36:O39" si="8">O35</f>
+        <v>TB_CO2_DKISL2_DKW_02</v>
+      </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
@@ -6247,6 +6275,10 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
+      <c r="O37" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_CO2_DKISL2_DKW_02</v>
+      </c>
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="13" t="s">
@@ -6262,6 +6294,10 @@
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
+      <c r="O38" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_CO2_DKISL2_DKW_02</v>
+      </c>
     </row>
     <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="13" t="s">
@@ -6275,6 +6311,10 @@
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
+      <c r="O39" t="str">
+        <f t="shared" si="8"/>
+        <v>TB_CO2_DKISL2_DKW_02</v>
+      </c>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="11" t="s">
@@ -6301,8 +6341,12 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <f t="shared" ref="M41:M51" si="7">I41</f>
-        <v>0</v>
+        <f t="shared" ref="M41:M51" si="9">I41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" t="str">
+        <f>O40</f>
+        <v>TB_CO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.3">
@@ -6314,8 +6358,12 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O42" t="str">
+        <f t="shared" ref="O42:O45" si="10">O41</f>
+        <v>TB_CO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.3">
@@ -6326,8 +6374,12 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O43" t="str">
+        <f t="shared" si="10"/>
+        <v>TB_CO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
@@ -6341,8 +6393,12 @@
         <v>0.98</v>
       </c>
       <c r="M44">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
+      </c>
+      <c r="O44" t="str">
+        <f t="shared" si="10"/>
+        <v>TB_CO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6354,8 +6410,12 @@
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M45">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O45" t="str">
+        <f t="shared" si="10"/>
+        <v>TB_CO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.3">
@@ -6367,7 +6427,7 @@
         <v>40</v>
       </c>
       <c r="M46">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>40</v>
       </c>
       <c r="O46" t="s">
@@ -6383,8 +6443,12 @@
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O47" t="str">
+        <f>O46</f>
+        <v>TB_CO2_DKISL3_DKW_02</v>
       </c>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
@@ -6396,11 +6460,15 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="4:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O48" t="str">
+        <f t="shared" ref="O48:O51" si="11">O47</f>
+        <v>TB_CO2_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>67</v>
       </c>
@@ -6408,11 +6476,15 @@
         <v>0</v>
       </c>
       <c r="M49">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="4:13" x14ac:dyDescent="0.3">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="O49" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_CO2_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="13" t="s">
         <v>16</v>
       </c>
@@ -6423,11 +6495,15 @@
         <v>0.98</v>
       </c>
       <c r="M50">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-    </row>
-    <row r="51" spans="4:13" x14ac:dyDescent="0.3">
+      <c r="O50" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_CO2_DKISL3_DKW_02</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="13" t="s">
         <v>17</v>
       </c>
@@ -6436,8 +6512,12 @@
         <v>3.1536000000000002E-2</v>
       </c>
       <c r="M51">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="O51" t="str">
+        <f t="shared" si="11"/>
+        <v>TB_CO2_DKISL3_DKW_02</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40A35C81-2B4F-4E2E-92CB-834B377FAD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372E405-7582-4C7C-9599-DDBDCEF5F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8628" yWindow="3696" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7164" yWindow="2004" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -497,28 +497,28 @@
     <t>VAROM</t>
   </si>
   <si>
-    <t>TB_CO2_DKISLBH_DKE_01</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISLBH_DKE_02</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL1_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL1_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL2_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL2_DKW_02</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL3_DKW_01</t>
-  </si>
-  <si>
-    <t>TB_CO2_DKISL3_DKW_02</t>
+    <t>TB_SUPCO2_DKISLBH_DKE_01</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISLBH_DKE_02</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL1_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL1_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL2_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL2_DKW_02</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL3_DKW_01</t>
+  </si>
+  <si>
+    <t>TB_SUPCO2_DKISL3_DKW_02</t>
   </si>
 </sst>
 </file>
@@ -5623,8 +5623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
   <dimension ref="B2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S53" sqref="S53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="O47" sqref="O47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5734,7 +5734,7 @@
       </c>
       <c r="O5" t="str">
         <f>O4</f>
-        <v>TB_CO2_DKISLBH_DKE_01</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
     <row r="6" spans="2:21" x14ac:dyDescent="0.3">
@@ -5751,7 +5751,7 @@
       </c>
       <c r="O6" t="str">
         <f t="shared" ref="O6:O9" si="1">O5</f>
-        <v>TB_CO2_DKISLBH_DKE_01</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
     <row r="7" spans="2:21" x14ac:dyDescent="0.3">
@@ -5767,7 +5767,7 @@
       </c>
       <c r="O7" t="str">
         <f t="shared" si="1"/>
-        <v>TB_CO2_DKISLBH_DKE_01</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
     <row r="8" spans="2:21" x14ac:dyDescent="0.3">
@@ -5775,7 +5775,7 @@
         <v>16</v>
       </c>
       <c r="E8" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="H8" s="13">
         <v>0.98</v>
@@ -5786,7 +5786,7 @@
       </c>
       <c r="O8" t="str">
         <f t="shared" si="1"/>
-        <v>TB_CO2_DKISLBH_DKE_01</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
     <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5803,7 +5803,7 @@
       </c>
       <c r="O9" t="str">
         <f t="shared" si="1"/>
-        <v>TB_CO2_DKISLBH_DKE_01</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
     <row r="10" spans="2:21" x14ac:dyDescent="0.3">
@@ -5836,7 +5836,7 @@
       </c>
       <c r="O11" t="str">
         <f>O10</f>
-        <v>TB_CO2_DKISLBH_DKE_02</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="12" spans="2:21" x14ac:dyDescent="0.3">
@@ -5853,7 +5853,7 @@
       </c>
       <c r="O12" t="str">
         <f t="shared" ref="O12:O15" si="2">O11</f>
-        <v>TB_CO2_DKISLBH_DKE_02</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="13" spans="2:21" x14ac:dyDescent="0.3">
@@ -5869,7 +5869,7 @@
       </c>
       <c r="O13" t="str">
         <f t="shared" si="2"/>
-        <v>TB_CO2_DKISLBH_DKE_02</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="14" spans="2:21" x14ac:dyDescent="0.3">
@@ -5877,7 +5877,7 @@
         <v>16</v>
       </c>
       <c r="E14" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="H14" s="13">
         <v>0.98</v>
@@ -5888,7 +5888,7 @@
       </c>
       <c r="O14" t="str">
         <f t="shared" si="2"/>
-        <v>TB_CO2_DKISLBH_DKE_02</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5905,7 +5905,7 @@
       </c>
       <c r="O15" t="str">
         <f t="shared" si="2"/>
-        <v>TB_CO2_DKISLBH_DKE_02</v>
+        <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
     <row r="16" spans="2:21" x14ac:dyDescent="0.3">
@@ -5938,7 +5938,7 @@
       </c>
       <c r="O17" t="str">
         <f>O16</f>
-        <v>TB_CO2_DKISL1_DKW_01</v>
+        <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
     <row r="18" spans="4:15" x14ac:dyDescent="0.3">
@@ -5955,7 +5955,7 @@
       </c>
       <c r="O18" t="str">
         <f t="shared" ref="O18:O21" si="4">O17</f>
-        <v>TB_CO2_DKISL1_DKW_01</v>
+        <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
     <row r="19" spans="4:15" x14ac:dyDescent="0.3">
@@ -5971,7 +5971,7 @@
       </c>
       <c r="O19" t="str">
         <f t="shared" si="4"/>
-        <v>TB_CO2_DKISL1_DKW_01</v>
+        <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
     <row r="20" spans="4:15" x14ac:dyDescent="0.3">
@@ -5979,7 +5979,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I20" s="13">
         <v>0.98</v>
@@ -5990,7 +5990,7 @@
       </c>
       <c r="O20" t="str">
         <f t="shared" si="4"/>
-        <v>TB_CO2_DKISL1_DKW_01</v>
+        <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
     <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6007,7 +6007,7 @@
       </c>
       <c r="O21" t="str">
         <f t="shared" si="4"/>
-        <v>TB_CO2_DKISL1_DKW_01</v>
+        <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
     <row r="22" spans="4:15" x14ac:dyDescent="0.3">
@@ -6040,7 +6040,7 @@
       </c>
       <c r="O23" t="str">
         <f>O22</f>
-        <v>TB_CO2_DKISL1_DKW_02</v>
+        <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
     <row r="24" spans="4:15" x14ac:dyDescent="0.3">
@@ -6057,7 +6057,7 @@
       </c>
       <c r="O24" t="str">
         <f t="shared" ref="O24:O27" si="5">O23</f>
-        <v>TB_CO2_DKISL1_DKW_02</v>
+        <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
     <row r="25" spans="4:15" x14ac:dyDescent="0.3">
@@ -6073,7 +6073,7 @@
       </c>
       <c r="O25" t="str">
         <f t="shared" si="5"/>
-        <v>TB_CO2_DKISL1_DKW_02</v>
+        <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
     <row r="26" spans="4:15" x14ac:dyDescent="0.3">
@@ -6081,7 +6081,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I26" s="13">
         <v>0.98</v>
@@ -6092,7 +6092,7 @@
       </c>
       <c r="O26" t="str">
         <f t="shared" si="5"/>
-        <v>TB_CO2_DKISL1_DKW_02</v>
+        <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
     <row r="27" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6109,7 +6109,7 @@
       </c>
       <c r="O27" t="str">
         <f t="shared" si="5"/>
-        <v>TB_CO2_DKISL1_DKW_02</v>
+        <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
     <row r="28" spans="4:15" x14ac:dyDescent="0.3">
@@ -6142,7 +6142,7 @@
       </c>
       <c r="O29" t="str">
         <f>O28</f>
-        <v>TB_CO2_DKISL2_DKW_01</v>
+        <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
     <row r="30" spans="4:15" x14ac:dyDescent="0.3">
@@ -6159,7 +6159,7 @@
       </c>
       <c r="O30" t="str">
         <f t="shared" ref="O30:O33" si="7">O29</f>
-        <v>TB_CO2_DKISL2_DKW_01</v>
+        <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
     <row r="31" spans="4:15" x14ac:dyDescent="0.3">
@@ -6175,7 +6175,7 @@
       </c>
       <c r="O31" t="str">
         <f t="shared" si="7"/>
-        <v>TB_CO2_DKISL2_DKW_01</v>
+        <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
     <row r="32" spans="4:15" x14ac:dyDescent="0.3">
@@ -6183,7 +6183,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I32" s="13">
         <v>0.98</v>
@@ -6194,7 +6194,7 @@
       </c>
       <c r="O32" t="str">
         <f t="shared" si="7"/>
-        <v>TB_CO2_DKISL2_DKW_01</v>
+        <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
     <row r="33" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6211,7 +6211,7 @@
       </c>
       <c r="O33" t="str">
         <f t="shared" si="7"/>
-        <v>TB_CO2_DKISL2_DKW_01</v>
+        <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
     <row r="34" spans="4:15" x14ac:dyDescent="0.3">
@@ -6244,7 +6244,7 @@
       </c>
       <c r="O35" t="str">
         <f>O34</f>
-        <v>TB_CO2_DKISL2_DKW_02</v>
+        <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
     <row r="36" spans="4:15" x14ac:dyDescent="0.3">
@@ -6261,7 +6261,7 @@
       </c>
       <c r="O36" t="str">
         <f t="shared" ref="O36:O39" si="8">O35</f>
-        <v>TB_CO2_DKISL2_DKW_02</v>
+        <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
     <row r="37" spans="4:15" x14ac:dyDescent="0.3">
@@ -6277,7 +6277,7 @@
       </c>
       <c r="O37" t="str">
         <f t="shared" si="8"/>
-        <v>TB_CO2_DKISL2_DKW_02</v>
+        <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
     <row r="38" spans="4:15" x14ac:dyDescent="0.3">
@@ -6285,7 +6285,7 @@
         <v>16</v>
       </c>
       <c r="E38" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I38" s="13">
         <v>0.98</v>
@@ -6296,7 +6296,7 @@
       </c>
       <c r="O38" t="str">
         <f t="shared" si="8"/>
-        <v>TB_CO2_DKISL2_DKW_02</v>
+        <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
     <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6313,7 +6313,7 @@
       </c>
       <c r="O39" t="str">
         <f t="shared" si="8"/>
-        <v>TB_CO2_DKISL2_DKW_02</v>
+        <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
     <row r="40" spans="4:15" x14ac:dyDescent="0.3">
@@ -6346,7 +6346,7 @@
       </c>
       <c r="O41" t="str">
         <f>O40</f>
-        <v>TB_CO2_DKISL3_DKW_01</v>
+        <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="42" spans="4:15" x14ac:dyDescent="0.3">
@@ -6363,7 +6363,7 @@
       </c>
       <c r="O42" t="str">
         <f t="shared" ref="O42:O45" si="10">O41</f>
-        <v>TB_CO2_DKISL3_DKW_01</v>
+        <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="43" spans="4:15" x14ac:dyDescent="0.3">
@@ -6379,7 +6379,7 @@
       </c>
       <c r="O43" t="str">
         <f t="shared" si="10"/>
-        <v>TB_CO2_DKISL3_DKW_01</v>
+        <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="44" spans="4:15" x14ac:dyDescent="0.3">
@@ -6387,7 +6387,7 @@
         <v>16</v>
       </c>
       <c r="E44" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I44" s="13">
         <v>0.98</v>
@@ -6398,7 +6398,7 @@
       </c>
       <c r="O44" t="str">
         <f t="shared" si="10"/>
-        <v>TB_CO2_DKISL3_DKW_01</v>
+        <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6415,7 +6415,7 @@
       </c>
       <c r="O45" t="str">
         <f t="shared" si="10"/>
-        <v>TB_CO2_DKISL3_DKW_01</v>
+        <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
     <row r="46" spans="4:15" x14ac:dyDescent="0.3">
@@ -6448,7 +6448,7 @@
       </c>
       <c r="O47" t="str">
         <f>O46</f>
-        <v>TB_CO2_DKISL3_DKW_02</v>
+        <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
     <row r="48" spans="4:15" x14ac:dyDescent="0.3">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="O48" t="str">
         <f t="shared" ref="O48:O51" si="11">O47</f>
-        <v>TB_CO2_DKISL3_DKW_02</v>
+        <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.3">
@@ -6481,7 +6481,7 @@
       </c>
       <c r="O49" t="str">
         <f t="shared" si="11"/>
-        <v>TB_CO2_DKISL3_DKW_02</v>
+        <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.3">
@@ -6489,7 +6489,7 @@
         <v>16</v>
       </c>
       <c r="E50" s="13">
-        <v>2020</v>
+        <v>2030</v>
       </c>
       <c r="I50" s="13">
         <v>0.98</v>
@@ -6500,7 +6500,7 @@
       </c>
       <c r="O50" t="str">
         <f t="shared" si="11"/>
-        <v>TB_CO2_DKISL3_DKW_02</v>
+        <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.3">
@@ -6517,7 +6517,7 @@
       </c>
       <c r="O51" t="str">
         <f t="shared" si="11"/>
-        <v>TB_CO2_DKISL3_DKW_02</v>
+        <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
   </sheetData>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6372E405-7582-4C7C-9599-DDBDCEF5F1BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223523C6-17EB-4DB5-AD24-E5A4621D776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7164" yWindow="2004" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -260,7 +260,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N2" authorId="1" shapeId="0" xr:uid="{14372D9E-7196-4673-829F-3ABF3F999546}">
+    <comment ref="O2" authorId="1" shapeId="0" xr:uid="{14372D9E-7196-4673-829F-3ABF3F999546}">
       <text>
         <r>
           <rPr>
@@ -273,7 +273,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S2" authorId="1" shapeId="0" xr:uid="{999894EA-5A29-4C06-B887-DEDD13E51398}">
+    <comment ref="T2" authorId="1" shapeId="0" xr:uid="{999894EA-5A29-4C06-B887-DEDD13E51398}">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -519,6 +519,9 @@
   </si>
   <si>
     <t>TB_SUPCO2_DKISL3_DKW_02</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -5621,28 +5624,28 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
-  <dimension ref="B2:U51"/>
+  <dimension ref="B2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="O47" sqref="O47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="N2" s="2"/>
-      <c r="O2" s="3"/>
+      <c r="O2" s="2"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="3"/>
       <c r="R2" s="3"/>
       <c r="S2" s="3"/>
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
-    </row>
-    <row r="3" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="V2" s="3"/>
+    </row>
+    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5656,866 +5659,1013 @@
         <v>1</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="J3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="O3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="P3" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="Q3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>0</v>
-      </c>
       <c r="R3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="S3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="T3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="U3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="U3" s="6" t="s">
+      <c r="V3" s="6" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E4" s="11"/>
-      <c r="H4">
+      <c r="F4" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I4">
         <v>40</v>
       </c>
-      <c r="J4">
-        <f>H4</f>
+      <c r="K4">
+        <f>I4</f>
         <v>40</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D5" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E5" s="13"/>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <f t="shared" ref="J5:J15" si="0">H5</f>
-        <v>0</v>
-      </c>
-      <c r="O5" t="str">
-        <f>O4</f>
+      <c r="F5" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ref="K5:K15" si="0">I5</f>
+        <v>0</v>
+      </c>
+      <c r="P5" t="str">
+        <f>P4</f>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D6" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E6" s="13"/>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="J6">
+      <c r="F6" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O6" t="str">
-        <f t="shared" ref="O6:O9" si="1">O5</f>
+      <c r="P6" t="str">
+        <f t="shared" ref="P6:P9" si="1">P5</f>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>67</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="J7">
+      <c r="F7" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O7" t="str">
+      <c r="P7" t="str">
         <f t="shared" si="1"/>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="13">
         <v>2030</v>
       </c>
-      <c r="H8" s="13">
+      <c r="F8" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I8" s="13">
         <v>0.98</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="O8" t="str">
+      <c r="P8" t="str">
         <f t="shared" si="1"/>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="9" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E9" s="13"/>
-      <c r="H9" s="13">
+      <c r="F9" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I9" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O9" t="str">
+      <c r="P9" t="str">
         <f t="shared" si="1"/>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="11"/>
-      <c r="H10">
+      <c r="F10" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I10">
         <v>40</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="O10" t="s">
+      <c r="P10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E11" s="13"/>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="J11">
+      <c r="F11" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O11" t="str">
-        <f>O10</f>
+      <c r="P11" t="str">
+        <f>P10</f>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E12" s="13"/>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="J12">
+      <c r="F12" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O12" t="str">
-        <f t="shared" ref="O12:O15" si="2">O11</f>
+      <c r="P12" t="str">
+        <f t="shared" ref="P12:P15" si="2">P11</f>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>67</v>
       </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="J13">
+      <c r="F13" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O13" t="str">
+      <c r="P13" t="str">
         <f t="shared" si="2"/>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E14" s="13">
         <v>2030</v>
       </c>
-      <c r="H14" s="13">
+      <c r="F14" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I14" s="13">
         <v>0.98</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <f t="shared" si="0"/>
         <v>0.98</v>
       </c>
-      <c r="O14" t="str">
+      <c r="P14" t="str">
         <f t="shared" si="2"/>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="15" spans="2:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="13"/>
-      <c r="H15" s="13">
+      <c r="F15" s="13">
+        <v>2030</v>
+      </c>
+      <c r="I15" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <f t="shared" si="0"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O15" t="str">
+      <c r="P15" t="str">
         <f t="shared" si="2"/>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E16" s="11"/>
-      <c r="I16">
+      <c r="F16" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J16">
         <v>40</v>
       </c>
-      <c r="K16">
-        <f>I16</f>
+      <c r="L16">
+        <f>J16</f>
         <v>40</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P16" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D17" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E17" s="13"/>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="K17">
-        <f t="shared" ref="K17:K27" si="3">I17</f>
-        <v>0</v>
-      </c>
-      <c r="O17" t="str">
-        <f>O16</f>
+      <c r="F17" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ref="L17:L27" si="3">J17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" t="str">
+        <f>P16</f>
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="13"/>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="K18">
+      <c r="F18" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="L18">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O18" t="str">
-        <f t="shared" ref="O18:O21" si="4">O17</f>
+      <c r="P18" t="str">
+        <f t="shared" ref="P18:P21" si="4">P17</f>
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D19" t="s">
         <v>67</v>
       </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="K19">
+      <c r="F19" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O19" t="str">
+      <c r="P19" t="str">
         <f t="shared" si="4"/>
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E20" s="13">
         <v>2030</v>
       </c>
-      <c r="I20" s="13">
+      <c r="F20" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J20" s="13">
         <v>0.98</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="O20" t="str">
+      <c r="P20" t="str">
         <f t="shared" si="4"/>
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="21" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E21" s="13"/>
-      <c r="I21" s="13">
+      <c r="F21" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J21" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <f t="shared" si="3"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O21" t="str">
+      <c r="P21" t="str">
         <f t="shared" si="4"/>
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E22" s="11"/>
-      <c r="I22">
+      <c r="F22" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J22">
         <v>40</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <f t="shared" si="3"/>
         <v>40</v>
       </c>
-      <c r="O22" t="s">
+      <c r="P22" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D23" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E23" s="13"/>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="K23">
+      <c r="F23" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O23" t="str">
-        <f>O22</f>
+      <c r="P23" t="str">
+        <f>P22</f>
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D24" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="13"/>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="K24">
+      <c r="F24" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="L24">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O24" t="str">
-        <f t="shared" ref="O24:O27" si="5">O23</f>
+      <c r="P24" t="str">
+        <f t="shared" ref="P24:P27" si="5">P23</f>
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="25" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D25" t="s">
         <v>67</v>
       </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="K25">
+      <c r="F25" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="L25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O25" t="str">
+      <c r="P25" t="str">
         <f t="shared" si="5"/>
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="26" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E26" s="13">
         <v>2030</v>
       </c>
-      <c r="I26" s="13">
+      <c r="F26" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J26" s="13">
         <v>0.98</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <f t="shared" si="3"/>
         <v>0.98</v>
       </c>
-      <c r="O26" t="str">
+      <c r="P26" t="str">
         <f t="shared" si="5"/>
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="27" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E27" s="13"/>
-      <c r="I27" s="13">
+      <c r="F27" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J27" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <f t="shared" si="3"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O27" t="str">
+      <c r="P27" t="str">
         <f t="shared" si="5"/>
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="28" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D28" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E28" s="11"/>
-      <c r="I28">
+      <c r="F28" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J28">
         <v>40</v>
       </c>
-      <c r="L28">
-        <f>I28</f>
+      <c r="M28">
+        <f>J28</f>
         <v>40</v>
       </c>
-      <c r="O28" t="s">
+      <c r="P28" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D29" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E29" s="13"/>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <f t="shared" ref="L29:L39" si="6">I29</f>
-        <v>0</v>
-      </c>
-      <c r="O29" t="str">
-        <f>O28</f>
+      <c r="F29" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <f t="shared" ref="M29:M39" si="6">J29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" t="str">
+        <f>P28</f>
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="30" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D30" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="L30">
+      <c r="F30" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="M30">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O30" t="str">
-        <f t="shared" ref="O30:O33" si="7">O29</f>
+      <c r="P30" t="str">
+        <f t="shared" ref="P30:P33" si="7">P29</f>
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="31" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>67</v>
       </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="L31">
+      <c r="F31" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="M31">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O31" t="str">
+      <c r="P31" t="str">
         <f t="shared" si="7"/>
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="32" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E32" s="13">
         <v>2030</v>
       </c>
-      <c r="I32" s="13">
+      <c r="F32" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J32" s="13">
         <v>0.98</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
-      <c r="O32" t="str">
+      <c r="P32" t="str">
         <f t="shared" si="7"/>
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="33" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D33" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="I33" s="13">
+      <c r="F33" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J33" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O33" t="str">
+      <c r="P33" t="str">
         <f t="shared" si="7"/>
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="34" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E34" s="11"/>
-      <c r="I34">
+      <c r="F34" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J34">
         <v>40</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <f t="shared" si="6"/>
         <v>40</v>
       </c>
-      <c r="O34" t="s">
+      <c r="P34" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D35" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="L35">
+      <c r="F35" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="M35">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O35" t="str">
-        <f>O34</f>
+      <c r="P35" t="str">
+        <f>P34</f>
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="36" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D36" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="L36">
+      <c r="F36" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="M36">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O36" t="str">
-        <f t="shared" ref="O36:O39" si="8">O35</f>
+      <c r="P36" t="str">
+        <f t="shared" ref="P36:P39" si="8">P35</f>
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D37" t="s">
         <v>67</v>
       </c>
-      <c r="I37">
-        <v>0</v>
-      </c>
-      <c r="L37">
+      <c r="F37" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="M37">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="O37" t="str">
+      <c r="P37" t="str">
         <f t="shared" si="8"/>
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D38" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E38" s="13">
         <v>2030</v>
       </c>
-      <c r="I38" s="13">
+      <c r="F38" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J38" s="13">
         <v>0.98</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <f t="shared" si="6"/>
         <v>0.98</v>
       </c>
-      <c r="O38" t="str">
+      <c r="P38" t="str">
         <f t="shared" si="8"/>
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="39" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D39" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E39" s="13"/>
-      <c r="I39" s="13">
+      <c r="F39" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J39" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="L39">
+      <c r="M39">
         <f t="shared" si="6"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O39" t="str">
+      <c r="P39" t="str">
         <f t="shared" si="8"/>
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E40" s="11"/>
-      <c r="I40">
+      <c r="F40" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J40">
         <v>40</v>
       </c>
-      <c r="M40">
-        <f>I40</f>
+      <c r="N40">
+        <f>J40</f>
         <v>40</v>
       </c>
-      <c r="O40" t="s">
+      <c r="P40" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D41" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E41" s="13"/>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <f t="shared" ref="M41:M51" si="9">I41</f>
-        <v>0</v>
-      </c>
-      <c r="O41" t="str">
-        <f>O40</f>
+      <c r="F41" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="N41">
+        <f t="shared" ref="N41:N51" si="9">J41</f>
+        <v>0</v>
+      </c>
+      <c r="P41" t="str">
+        <f>P40</f>
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D42" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E42" s="13"/>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="M42">
+      <c r="F42" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="N42">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O42" t="str">
-        <f t="shared" ref="O42:O45" si="10">O41</f>
+      <c r="P42" t="str">
+        <f t="shared" ref="P42:P45" si="10">P41</f>
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D43" t="s">
         <v>67</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="M43">
+      <c r="F43" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="N43">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O43" t="str">
+      <c r="P43" t="str">
         <f t="shared" si="10"/>
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D44" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E44" s="13">
         <v>2030</v>
       </c>
-      <c r="I44" s="13">
+      <c r="F44" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J44" s="13">
         <v>0.98</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-      <c r="O44" t="str">
+      <c r="P44" t="str">
         <f t="shared" si="10"/>
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="45" spans="4:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D45" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E45" s="13"/>
-      <c r="I45" s="13">
+      <c r="F45" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J45" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M45">
+      <c r="N45">
         <f t="shared" si="9"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O45" t="str">
+      <c r="P45" t="str">
         <f t="shared" si="10"/>
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D46" s="11" t="s">
         <v>18</v>
       </c>
       <c r="E46" s="11"/>
-      <c r="I46">
+      <c r="F46" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J46">
         <v>40</v>
       </c>
-      <c r="M46">
+      <c r="N46">
         <f t="shared" si="9"/>
         <v>40</v>
       </c>
-      <c r="O46" t="s">
+      <c r="P46" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D47" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E47" s="13"/>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="M47">
+      <c r="F47" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="N47">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O47" t="str">
-        <f>O46</f>
+      <c r="P47" t="str">
+        <f>P46</f>
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D48" s="17" t="s">
         <v>34</v>
       </c>
       <c r="E48" s="13"/>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="M48">
+      <c r="F48" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="N48">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O48" t="str">
-        <f t="shared" ref="O48:O51" si="11">O47</f>
+      <c r="P48" t="str">
+        <f t="shared" ref="P48:P51" si="11">P47</f>
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>67</v>
       </c>
-      <c r="I49">
-        <v>0</v>
-      </c>
-      <c r="M49">
+      <c r="F49" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J49">
+        <v>0</v>
+      </c>
+      <c r="N49">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
-      <c r="O49" t="str">
+      <c r="P49" t="str">
         <f t="shared" si="11"/>
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D50" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E50" s="13">
         <v>2030</v>
       </c>
-      <c r="I50" s="13">
+      <c r="F50" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J50" s="13">
         <v>0.98</v>
       </c>
-      <c r="M50">
+      <c r="N50">
         <f t="shared" si="9"/>
         <v>0.98</v>
       </c>
-      <c r="O50" t="str">
+      <c r="P50" t="str">
         <f t="shared" si="11"/>
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D51" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E51" s="13"/>
-      <c r="I51" s="13">
+      <c r="F51" s="13">
+        <v>2030</v>
+      </c>
+      <c r="J51" s="13">
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="M51">
+      <c r="N51">
         <f t="shared" si="9"/>
         <v>3.1536000000000002E-2</v>
       </c>
-      <c r="O51" t="str">
+      <c r="P51" t="str">
         <f t="shared" si="11"/>
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2bae57ad8ea7bb4f/OneDrive/GitHub^J Inc/EnergyIsland/SuppXLS/Trades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223523C6-17EB-4DB5-AD24-E5A4621D776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{223523C6-17EB-4DB5-AD24-E5A4621D776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4D04AC47-2418-4052-A799-9FF7CF99255D}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="2004" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="51855" yWindow="3150" windowWidth="20760" windowHeight="12180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -291,7 +291,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="327" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="78">
   <si>
     <t>Pset_CI</t>
   </si>
@@ -522,6 +522,9 @@
   </si>
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>TB_H2_MAR_DKW_01</t>
   </si>
 </sst>
 </file>
@@ -752,13 +755,13 @@
     <cellStyle name="Bad 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Comma0 - Type3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Fixed2 - Type2" xfId="3" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 10" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
     <cellStyle name="Normal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
     <cellStyle name="Normal 3" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
     <cellStyle name="Normale_Scen_UC_IND-StrucConst" xfId="7" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
     <cellStyle name="Percen - Type1" xfId="8" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Percent 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Valore valido" xfId="10" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -775,7 +778,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1104,16 +1107,16 @@
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.44140625" customWidth="1"/>
-    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="1" max="1" width="11.46484375" customWidth="1"/>
+    <col min="2" max="2" width="15.53125" customWidth="1"/>
     <col min="3" max="3" width="13.6640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" customWidth="1"/>
+    <col min="5" max="5" width="60.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="8" t="s">
         <v>21</v>
       </c>
@@ -1130,7 +1133,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" s="9" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A4" s="10">
         <v>42991</v>
       </c>
@@ -1157,37 +1160,37 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U48"/>
   <sheetViews>
-    <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="13" width="10.5546875" customWidth="1"/>
-    <col min="14" max="14" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5546875" customWidth="1"/>
-    <col min="16" max="16" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.53125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.53125" bestFit="1" customWidth="1"/>
+    <col min="9" max="13" width="10.53125" customWidth="1"/>
+    <col min="14" max="14" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.53125" customWidth="1"/>
+    <col min="16" max="16" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="7.53125" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="8.53125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.46484375" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -1200,7 +1203,7 @@
       <c r="T2" s="3"/>
       <c r="U2" s="3"/>
     </row>
-    <row r="3" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -1262,7 +1265,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -1286,7 +1289,7 @@
       <c r="P4" s="11"/>
       <c r="U4" s="7"/>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D5" s="12" t="s">
         <v>33</v>
       </c>
@@ -1311,7 +1314,7 @@
       </c>
       <c r="P5" s="13"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D6" s="12" t="s">
         <v>34</v>
       </c>
@@ -1336,7 +1339,7 @@
       </c>
       <c r="P6" s="13"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D7" s="13" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1366,7 @@
       </c>
       <c r="P7" s="13"/>
     </row>
-    <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D8" s="14" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1391,7 @@
       </c>
       <c r="P8" s="14"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D9" s="11" t="s">
         <v>18</v>
       </c>
@@ -1405,7 +1408,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1423,7 +1426,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D11" s="12" t="s">
         <v>34</v>
       </c>
@@ -1441,7 +1444,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D12" s="13" t="s">
         <v>16</v>
       </c>
@@ -1461,7 +1464,7 @@
         <v>TB_H2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:21" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D13" s="14" t="s">
         <v>17</v>
       </c>
@@ -1486,7 +1489,7 @@
       </c>
       <c r="P13" s="14"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D14" s="11" t="s">
         <v>18</v>
       </c>
@@ -1510,7 +1513,7 @@
       </c>
       <c r="P14" s="13"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D15" s="12" t="s">
         <v>33</v>
       </c>
@@ -1535,7 +1538,7 @@
       </c>
       <c r="P15" s="13"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.45">
       <c r="D16" s="12" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1563,7 @@
       </c>
       <c r="P16" s="13"/>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D17" s="13" t="s">
         <v>16</v>
       </c>
@@ -1587,7 +1590,7 @@
       </c>
       <c r="P17" s="13"/>
     </row>
-    <row r="18" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D18" s="14" t="s">
         <v>17</v>
       </c>
@@ -1612,7 +1615,7 @@
       </c>
       <c r="P18" s="14"/>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D19" s="11" t="s">
         <v>18</v>
       </c>
@@ -1636,7 +1639,7 @@
       </c>
       <c r="P19" s="15"/>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D20" s="12" t="s">
         <v>33</v>
       </c>
@@ -1662,7 +1665,7 @@
       </c>
       <c r="P20" s="13"/>
     </row>
-    <row r="21" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D21" s="12" t="s">
         <v>34</v>
       </c>
@@ -1688,7 +1691,7 @@
       </c>
       <c r="P21" s="13"/>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D22" s="13" t="s">
         <v>16</v>
       </c>
@@ -1715,7 +1718,7 @@
       </c>
       <c r="P22" s="13"/>
     </row>
-    <row r="23" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D23" s="14" t="s">
         <v>17</v>
       </c>
@@ -1740,7 +1743,7 @@
       </c>
       <c r="P23" s="14"/>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24" s="11" t="s">
         <v>18</v>
       </c>
@@ -1764,7 +1767,7 @@
       </c>
       <c r="P24" s="15"/>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D25" s="12" t="s">
         <v>33</v>
       </c>
@@ -1789,7 +1792,7 @@
       </c>
       <c r="P25" s="13"/>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D26" s="12" t="s">
         <v>34</v>
       </c>
@@ -1814,7 +1817,7 @@
       </c>
       <c r="P26" s="13"/>
     </row>
-    <row r="27" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D27" s="13" t="s">
         <v>16</v>
       </c>
@@ -1841,7 +1844,7 @@
       </c>
       <c r="P27" s="13"/>
     </row>
-    <row r="28" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D28" s="14" t="s">
         <v>17</v>
       </c>
@@ -1866,7 +1869,7 @@
       </c>
       <c r="P28" s="14"/>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D29" s="11" t="s">
         <v>18</v>
       </c>
@@ -1890,7 +1893,7 @@
       </c>
       <c r="P29" s="15"/>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D30" s="12" t="s">
         <v>33</v>
       </c>
@@ -1916,7 +1919,7 @@
       </c>
       <c r="P30" s="13"/>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D31" s="12" t="s">
         <v>34</v>
       </c>
@@ -1942,7 +1945,7 @@
       </c>
       <c r="P31" s="13"/>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="P32" s="13"/>
     </row>
-    <row r="33" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D33" s="14" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +1997,7 @@
       </c>
       <c r="P33" s="14"/>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
@@ -2018,7 +2021,7 @@
       </c>
       <c r="P34" s="15"/>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D35" s="12" t="s">
         <v>33</v>
       </c>
@@ -2043,7 +2046,7 @@
       </c>
       <c r="P35" s="13"/>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D36" s="12" t="s">
         <v>34</v>
       </c>
@@ -2068,7 +2071,7 @@
       </c>
       <c r="P36" s="13"/>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D37" s="13" t="s">
         <v>16</v>
       </c>
@@ -2095,7 +2098,7 @@
       </c>
       <c r="P37" s="13"/>
     </row>
-    <row r="38" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D38" s="14" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2123,7 @@
       </c>
       <c r="P38" s="14"/>
     </row>
-    <row r="39" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D39" s="11" t="s">
         <v>18</v>
       </c>
@@ -2144,7 +2147,7 @@
       </c>
       <c r="P39" s="15"/>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D40" s="12" t="s">
         <v>33</v>
       </c>
@@ -2170,7 +2173,7 @@
       </c>
       <c r="P40" s="13"/>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D41" s="12" t="s">
         <v>34</v>
       </c>
@@ -2196,7 +2199,7 @@
       </c>
       <c r="P41" s="13"/>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
@@ -2223,7 +2226,7 @@
       </c>
       <c r="P42" s="13"/>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D43" s="14" t="s">
         <v>17</v>
       </c>
@@ -2247,6 +2250,129 @@
         <v>TB_H2_DKISL3_DKW_02</v>
       </c>
       <c r="P43" s="14"/>
+    </row>
+    <row r="44" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D44" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="11">
+        <v>20</v>
+      </c>
+      <c r="J44" s="15"/>
+      <c r="K44" s="15"/>
+      <c r="L44" s="15"/>
+      <c r="M44" s="15">
+        <f>I44</f>
+        <v>20</v>
+      </c>
+      <c r="N44" s="15"/>
+      <c r="O44" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="45" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="17">
+        <f>I40</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="17">
+        <f>I45</f>
+        <v>3.1329000000000001E-3</v>
+      </c>
+      <c r="N45" s="13"/>
+      <c r="O45" t="str">
+        <f>O44</f>
+        <v>TB_H2_MAR_DKW_01</v>
+      </c>
+    </row>
+    <row r="46" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D46" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="20">
+        <f>I41</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="17">
+        <f t="shared" ref="M46:M48" si="13">I46</f>
+        <v>1.5659999999999999E-5</v>
+      </c>
+      <c r="N46" s="13"/>
+      <c r="O46" t="str">
+        <f t="shared" ref="O46:O48" si="14">O45</f>
+        <v>TB_H2_MAR_DKW_01</v>
+      </c>
+    </row>
+    <row r="47" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D47" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="13">
+        <v>2020</v>
+      </c>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13">
+        <v>0.98</v>
+      </c>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="17">
+        <f t="shared" si="13"/>
+        <v>0.98</v>
+      </c>
+      <c r="N47" s="13"/>
+      <c r="O47" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_H2_MAR_DKW_01</v>
+      </c>
+    </row>
+    <row r="48" spans="4:16" x14ac:dyDescent="0.45">
+      <c r="D48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="14"/>
+      <c r="F48" s="14"/>
+      <c r="G48" s="14"/>
+      <c r="H48" s="14"/>
+      <c r="I48" s="14">
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="J48" s="14"/>
+      <c r="K48" s="14"/>
+      <c r="L48" s="14"/>
+      <c r="M48" s="19">
+        <f t="shared" si="13"/>
+        <v>3.1536000000000002E-2</v>
+      </c>
+      <c r="N48" s="14"/>
+      <c r="O48" t="str">
+        <f t="shared" si="14"/>
+        <v>TB_H2_MAR_DKW_01</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="12" type="noConversion"/>
@@ -2259,13 +2385,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{631640E5-5850-40C9-881C-CA46D9462D7F}">
   <dimension ref="C2:AD44"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="X25" sqref="X25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:30" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -2278,7 +2404,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -2340,7 +2466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:30" x14ac:dyDescent="0.45">
       <c r="E4" s="21" t="s">
         <v>18</v>
       </c>
@@ -2360,7 +2486,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="5" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:30" x14ac:dyDescent="0.45">
       <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
@@ -2385,7 +2511,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="6" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:30" x14ac:dyDescent="0.45">
       <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
@@ -2411,7 +2537,7 @@
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:30" x14ac:dyDescent="0.45">
       <c r="E7" s="22" t="s">
         <v>67</v>
       </c>
@@ -2431,7 +2557,7 @@
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="8" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:30" x14ac:dyDescent="0.45">
       <c r="E8" s="17" t="s">
         <v>16</v>
       </c>
@@ -2459,7 +2585,7 @@
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="9" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="13"/>
       <c r="E9" s="17" t="s">
         <v>17</v>
@@ -2490,7 +2616,7 @@
         <v>TB_MOE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="10" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D10" s="13"/>
       <c r="E10" s="21" t="s">
         <v>18</v>
@@ -2519,7 +2645,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D11" s="13"/>
       <c r="E11" s="17" t="s">
         <v>33</v>
@@ -2550,7 +2676,7 @@
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D12" s="13"/>
       <c r="E12" s="17" t="s">
         <v>34</v>
@@ -2581,7 +2707,7 @@
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D13" s="13"/>
       <c r="E13" s="22" t="s">
         <v>67</v>
@@ -2611,7 +2737,7 @@
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="14" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D14" s="13"/>
       <c r="E14" s="17" t="s">
         <v>16</v>
@@ -2644,7 +2770,7 @@
         <v>TB_MOE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="15" spans="3:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D15" s="13"/>
       <c r="E15" s="17" t="s">
         <v>17</v>
@@ -2676,7 +2802,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="3:30" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:30" x14ac:dyDescent="0.45">
       <c r="D16" s="13"/>
       <c r="E16" s="21" t="s">
         <v>18</v>
@@ -2706,7 +2832,7 @@
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="17" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D17" s="13"/>
       <c r="E17" s="17" t="s">
         <v>33</v>
@@ -2737,7 +2863,7 @@
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D18" s="13"/>
       <c r="E18" s="17" t="s">
         <v>34</v>
@@ -2768,7 +2894,7 @@
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D19" s="13"/>
       <c r="E19" s="22" t="s">
         <v>67</v>
@@ -2798,7 +2924,7 @@
         <v>TB_MOE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="20" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D20" s="13"/>
       <c r="E20" s="17" t="s">
         <v>16</v>
@@ -2830,7 +2956,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="4:30" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:30" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D21" s="13"/>
       <c r="E21" s="17" t="s">
         <v>17</v>
@@ -2863,7 +2989,7 @@
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="22" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D22" s="13"/>
       <c r="E22" s="21" t="s">
         <v>18</v>
@@ -2895,7 +3021,7 @@
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="23" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D23" s="13"/>
       <c r="E23" s="17" t="s">
         <v>33</v>
@@ -2928,7 +3054,7 @@
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D24" s="13"/>
       <c r="E24" s="17" t="s">
         <v>34</v>
@@ -2961,7 +3087,7 @@
         <v>TB_MOE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="25" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D25" s="13"/>
       <c r="E25" s="22" t="s">
         <v>67</v>
@@ -2992,7 +3118,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="26" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D26" s="13"/>
       <c r="E26" s="17" t="s">
         <v>16</v>
@@ -3027,7 +3153,7 @@
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="27" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="27" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D27" s="13"/>
       <c r="E27" s="17" t="s">
         <v>17</v>
@@ -3060,7 +3186,7 @@
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="28" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D28" s="13"/>
       <c r="E28" s="13"/>
       <c r="F28" s="13"/>
@@ -3083,7 +3209,7 @@
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="29" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D29" s="13"/>
       <c r="E29" s="13"/>
       <c r="F29" s="13"/>
@@ -3106,7 +3232,7 @@
         <v>TB_MOE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="30" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -3128,7 +3254,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D31" s="13"/>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -3151,7 +3277,7 @@
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="32" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D32" s="13"/>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -3174,7 +3300,7 @@
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="33" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D33" s="13"/>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -3197,7 +3323,7 @@
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="34" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -3220,7 +3346,7 @@
         <v>TB_MOE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="35" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D35" s="13"/>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -3242,7 +3368,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D36" s="13"/>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -3265,7 +3391,7 @@
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="37" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D37" s="13"/>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -3288,7 +3414,7 @@
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="38" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D38" s="13"/>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -3311,7 +3437,7 @@
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="39" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D39" s="13"/>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -3334,7 +3460,7 @@
         <v>TB_MOE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="40" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D40" s="13"/>
       <c r="E40" s="13"/>
       <c r="F40" s="13"/>
@@ -3356,7 +3482,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="41" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D41" s="13"/>
       <c r="E41" s="13"/>
       <c r="F41" s="13"/>
@@ -3379,7 +3505,7 @@
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:30" x14ac:dyDescent="0.45">
       <c r="D42" s="13"/>
       <c r="E42" s="13"/>
       <c r="F42" s="13"/>
@@ -3402,7 +3528,7 @@
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:30" x14ac:dyDescent="0.45">
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
       <c r="G43" s="13"/>
@@ -3424,7 +3550,7 @@
         <v>TB_MOE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="44" spans="4:30" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:30" x14ac:dyDescent="0.45">
       <c r="AD44" t="str">
         <f t="shared" si="15"/>
         <v>TB_MOE_DKISL3_DKW_02</v>
@@ -3440,13 +3566,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
   <dimension ref="C2:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:28" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -3459,7 +3585,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -3521,7 +3647,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
@@ -3541,7 +3667,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="5" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
@@ -3566,7 +3692,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
@@ -3592,7 +3718,7 @@
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>67</v>
       </c>
@@ -3612,7 +3738,7 @@
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="8" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +3766,7 @@
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="9" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
@@ -3666,7 +3792,7 @@
         <v>TB_KRE_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="10" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
@@ -3693,7 +3819,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
@@ -3722,7 +3848,7 @@
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
@@ -3751,7 +3877,7 @@
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>67</v>
       </c>
@@ -3779,7 +3905,7 @@
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="14" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
@@ -3810,7 +3936,7 @@
         <v>TB_KRE_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="15" spans="3:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
@@ -3839,7 +3965,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="3:28" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:28" x14ac:dyDescent="0.45">
       <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
@@ -3868,7 +3994,7 @@
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="17" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
@@ -3898,7 +4024,7 @@
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -3928,7 +4054,7 @@
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>67</v>
       </c>
@@ -3957,7 +4083,7 @@
         <v>TB_KRE_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="20" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
@@ -3988,7 +4114,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="5:28" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:28" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
@@ -4018,7 +4144,7 @@
         <v>TB_KRE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="22" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
@@ -4047,7 +4173,7 @@
         <v>TB_KRE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="23" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E23" s="17" t="s">
         <v>33</v>
       </c>
@@ -4077,7 +4203,7 @@
         <v>TB_KRE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E24" s="17" t="s">
         <v>34</v>
       </c>
@@ -4107,7 +4233,7 @@
         <v>TB_KRE_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="25" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>67</v>
       </c>
@@ -4135,7 +4261,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E26" s="13" t="s">
         <v>16</v>
       </c>
@@ -4167,7 +4293,7 @@
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="27" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
@@ -4197,7 +4323,7 @@
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="28" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -4217,7 +4343,7 @@
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="29" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -4237,7 +4363,7 @@
         <v>TB_KRE_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="30" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -4256,7 +4382,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -4276,7 +4402,7 @@
         <v>TB_KRE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="32" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -4296,7 +4422,7 @@
         <v>TB_KRE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="33" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -4316,7 +4442,7 @@
         <v>TB_KRE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="34" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -4336,7 +4462,7 @@
         <v>TB_KRE_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="35" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -4355,7 +4481,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -4375,7 +4501,7 @@
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="37" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -4395,7 +4521,7 @@
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="38" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -4415,7 +4541,7 @@
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="39" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -4435,7 +4561,7 @@
         <v>TB_KRE_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="40" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -4454,7 +4580,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -4474,7 +4600,7 @@
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -4494,7 +4620,7 @@
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:28" x14ac:dyDescent="0.45">
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -4514,7 +4640,7 @@
         <v>TB_KRE_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="44" spans="5:28" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:28" x14ac:dyDescent="0.45">
       <c r="AB44" t="str">
         <f t="shared" si="15"/>
         <v>TB_KRE_DKISL3_DKW_02</v>
@@ -4534,9 +4660,9 @@
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:27" x14ac:dyDescent="0.45">
       <c r="C2" s="1" t="s">
         <v>8</v>
       </c>
@@ -4549,7 +4675,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="3:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C3" s="4" t="s">
         <v>9</v>
       </c>
@@ -4611,7 +4737,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E4" s="11" t="s">
         <v>18</v>
       </c>
@@ -4631,7 +4757,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E5" s="17" t="s">
         <v>33</v>
       </c>
@@ -4656,7 +4782,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E6" s="17" t="s">
         <v>34</v>
       </c>
@@ -4682,7 +4808,7 @@
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E7" t="s">
         <v>67</v>
       </c>
@@ -4702,7 +4828,7 @@
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="8" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E8" s="13" t="s">
         <v>16</v>
       </c>
@@ -4730,7 +4856,7 @@
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="9" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E9" s="13" t="s">
         <v>17</v>
       </c>
@@ -4757,7 +4883,7 @@
         <v>TB_AMM_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="10" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E10" s="11" t="s">
         <v>18</v>
       </c>
@@ -4785,7 +4911,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E11" s="17" t="s">
         <v>33</v>
       </c>
@@ -4815,7 +4941,7 @@
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E12" s="17" t="s">
         <v>34</v>
       </c>
@@ -4845,7 +4971,7 @@
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E13" t="s">
         <v>67</v>
       </c>
@@ -4874,7 +5000,7 @@
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="14" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E14" s="13" t="s">
         <v>16</v>
       </c>
@@ -4906,7 +5032,7 @@
         <v>TB_AMM_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="15" spans="3:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E15" s="13" t="s">
         <v>17</v>
       </c>
@@ -4935,7 +5061,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="3:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:27" x14ac:dyDescent="0.45">
       <c r="E16" s="11" t="s">
         <v>18</v>
       </c>
@@ -4964,7 +5090,7 @@
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="17" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E17" s="17" t="s">
         <v>33</v>
       </c>
@@ -4994,7 +5120,7 @@
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E18" s="17" t="s">
         <v>34</v>
       </c>
@@ -5024,7 +5150,7 @@
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E19" t="s">
         <v>67</v>
       </c>
@@ -5053,7 +5179,7 @@
         <v>TB_AMM_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="20" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E20" s="13" t="s">
         <v>16</v>
       </c>
@@ -5084,7 +5210,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="5:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="5:27" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="E21" s="13" t="s">
         <v>17</v>
       </c>
@@ -5114,7 +5240,7 @@
         <v>TB_AMM_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="22" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E22" s="11" t="s">
         <v>18</v>
       </c>
@@ -5143,7 +5269,7 @@
         <v>TB_AMM_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="23" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E23" s="17" t="s">
         <v>33</v>
       </c>
@@ -5173,7 +5299,7 @@
         <v>TB_AMM_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E24" s="17" t="s">
         <v>34</v>
       </c>
@@ -5203,7 +5329,7 @@
         <v>TB_AMM_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="25" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E25" t="s">
         <v>67</v>
       </c>
@@ -5231,7 +5357,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="26" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E26" s="13" t="s">
         <v>16</v>
       </c>
@@ -5263,7 +5389,7 @@
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="27" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E27" s="13" t="s">
         <v>17</v>
       </c>
@@ -5293,7 +5419,7 @@
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="28" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E28" s="17"/>
       <c r="F28" s="17"/>
       <c r="G28" s="17"/>
@@ -5313,7 +5439,7 @@
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="29" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E29" s="17"/>
       <c r="F29" s="17"/>
       <c r="G29" s="17"/>
@@ -5333,7 +5459,7 @@
         <v>TB_AMM_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="30" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E30" s="17"/>
       <c r="F30" s="17"/>
       <c r="G30" s="17"/>
@@ -5352,7 +5478,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E31" s="17"/>
       <c r="F31" s="17"/>
       <c r="G31" s="17"/>
@@ -5372,7 +5498,7 @@
         <v>TB_AMM_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="32" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E32" s="17"/>
       <c r="F32" s="17"/>
       <c r="G32" s="17"/>
@@ -5392,7 +5518,7 @@
         <v>TB_AMM_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="33" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E33" s="17"/>
       <c r="F33" s="17"/>
       <c r="G33" s="17"/>
@@ -5412,7 +5538,7 @@
         <v>TB_AMM_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="34" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E34" s="17"/>
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
@@ -5432,7 +5558,7 @@
         <v>TB_AMM_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="35" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E35" s="17"/>
       <c r="F35" s="17"/>
       <c r="G35" s="17"/>
@@ -5451,7 +5577,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E36" s="17"/>
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
@@ -5471,7 +5597,7 @@
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="37" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E37" s="17"/>
       <c r="F37" s="17"/>
       <c r="G37" s="17"/>
@@ -5491,7 +5617,7 @@
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="38" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E38" s="17"/>
       <c r="F38" s="17"/>
       <c r="G38" s="17"/>
@@ -5511,7 +5637,7 @@
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="39" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E39" s="17"/>
       <c r="F39" s="17"/>
       <c r="G39" s="17"/>
@@ -5531,7 +5657,7 @@
         <v>TB_AMM_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="40" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E40" s="17"/>
       <c r="F40" s="17"/>
       <c r="G40" s="17"/>
@@ -5550,7 +5676,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="41" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E41" s="17"/>
       <c r="F41" s="17"/>
       <c r="G41" s="17"/>
@@ -5570,7 +5696,7 @@
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="42" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E42" s="17"/>
       <c r="F42" s="17"/>
       <c r="G42" s="17"/>
@@ -5590,7 +5716,7 @@
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="43" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:27" x14ac:dyDescent="0.45">
       <c r="E43" s="17"/>
       <c r="F43" s="17"/>
       <c r="G43" s="17"/>
@@ -5610,7 +5736,7 @@
         <v>TB_AMM_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="44" spans="5:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:27" x14ac:dyDescent="0.45">
       <c r="AA44" t="str">
         <f t="shared" si="15"/>
         <v>TB_AMM_DKISL3_DKW_02</v>
@@ -5626,13 +5752,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AE1A95-6D3E-474D-AE6A-92E967540746}">
   <dimension ref="B2:V51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.06640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
@@ -5645,7 +5771,7 @@
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
     </row>
-    <row r="3" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
@@ -5710,7 +5836,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D4" s="11" t="s">
         <v>18</v>
       </c>
@@ -5729,7 +5855,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D5" s="17" t="s">
         <v>33</v>
       </c>
@@ -5749,7 +5875,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D6" s="17" t="s">
         <v>34</v>
       </c>
@@ -5769,7 +5895,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D7" t="s">
         <v>67</v>
       </c>
@@ -5788,7 +5914,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D8" s="13" t="s">
         <v>16</v>
       </c>
@@ -5810,7 +5936,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D9" s="13" t="s">
         <v>17</v>
       </c>
@@ -5830,7 +5956,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D10" s="11" t="s">
         <v>18</v>
       </c>
@@ -5849,7 +5975,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D11" s="17" t="s">
         <v>33</v>
       </c>
@@ -5869,7 +5995,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D12" s="17" t="s">
         <v>34</v>
       </c>
@@ -5889,7 +6015,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D13" t="s">
         <v>67</v>
       </c>
@@ -5908,7 +6034,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D14" s="13" t="s">
         <v>16</v>
       </c>
@@ -5930,7 +6056,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="15" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:22" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
@@ -5950,7 +6076,7 @@
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.45">
       <c r="D16" s="11" t="s">
         <v>18</v>
       </c>
@@ -5969,7 +6095,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="17" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D17" s="17" t="s">
         <v>33</v>
       </c>
@@ -5989,7 +6115,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="18" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D18" s="17" t="s">
         <v>34</v>
       </c>
@@ -6009,7 +6135,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="19" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D19" t="s">
         <v>67</v>
       </c>
@@ -6028,7 +6154,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="20" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D20" s="13" t="s">
         <v>16</v>
       </c>
@@ -6050,7 +6176,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="21" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D21" s="13" t="s">
         <v>17</v>
       </c>
@@ -6070,7 +6196,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_01</v>
       </c>
     </row>
-    <row r="22" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D22" s="11" t="s">
         <v>18</v>
       </c>
@@ -6089,7 +6215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="23" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D23" s="17" t="s">
         <v>33</v>
       </c>
@@ -6109,7 +6235,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="24" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="24" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D24" s="17" t="s">
         <v>34</v>
       </c>
@@ -6129,7 +6255,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="25" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="25" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D25" t="s">
         <v>67</v>
       </c>
@@ -6148,7 +6274,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="26" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D26" s="13" t="s">
         <v>16</v>
       </c>
@@ -6170,7 +6296,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="27" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D27" s="13" t="s">
         <v>17</v>
       </c>
@@ -6190,7 +6316,7 @@
         <v>TB_SUPCO2_DKISL1_DKW_02</v>
       </c>
     </row>
-    <row r="28" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D28" s="11" t="s">
         <v>18</v>
       </c>
@@ -6209,7 +6335,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D29" s="17" t="s">
         <v>33</v>
       </c>
@@ -6229,7 +6355,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="30" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D30" s="17" t="s">
         <v>34</v>
       </c>
@@ -6249,7 +6375,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="31" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D31" t="s">
         <v>67</v>
       </c>
@@ -6268,7 +6394,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="32" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D32" s="13" t="s">
         <v>16</v>
       </c>
@@ -6290,7 +6416,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="33" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D33" s="13" t="s">
         <v>17</v>
       </c>
@@ -6310,7 +6436,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_01</v>
       </c>
     </row>
-    <row r="34" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D34" s="11" t="s">
         <v>18</v>
       </c>
@@ -6329,7 +6455,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D35" s="17" t="s">
         <v>33</v>
       </c>
@@ -6349,7 +6475,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="36" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D36" s="17" t="s">
         <v>34</v>
       </c>
@@ -6369,7 +6495,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="37" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D37" t="s">
         <v>67</v>
       </c>
@@ -6388,7 +6514,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="38" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D38" s="13" t="s">
         <v>16</v>
       </c>
@@ -6410,7 +6536,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="39" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D39" s="13" t="s">
         <v>17</v>
       </c>
@@ -6430,7 +6556,7 @@
         <v>TB_SUPCO2_DKISL2_DKW_02</v>
       </c>
     </row>
-    <row r="40" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D40" s="11" t="s">
         <v>18</v>
       </c>
@@ -6449,7 +6575,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="41" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D41" s="17" t="s">
         <v>33</v>
       </c>
@@ -6469,7 +6595,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="42" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D42" s="17" t="s">
         <v>34</v>
       </c>
@@ -6489,7 +6615,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="43" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D43" t="s">
         <v>67</v>
       </c>
@@ -6508,7 +6634,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="44" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D44" s="13" t="s">
         <v>16</v>
       </c>
@@ -6530,7 +6656,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="45" spans="4:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="4:16" ht="14.65" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D45" s="13" t="s">
         <v>17</v>
       </c>
@@ -6550,7 +6676,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_01</v>
       </c>
     </row>
-    <row r="46" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D46" s="11" t="s">
         <v>18</v>
       </c>
@@ -6569,7 +6695,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="47" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D47" s="17" t="s">
         <v>33</v>
       </c>
@@ -6589,7 +6715,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="48" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D48" s="17" t="s">
         <v>34</v>
       </c>
@@ -6609,7 +6735,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="49" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D49" t="s">
         <v>67</v>
       </c>
@@ -6628,7 +6754,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="50" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D50" s="13" t="s">
         <v>16</v>
       </c>
@@ -6650,7 +6776,7 @@
         <v>TB_SUPCO2_DKISL3_DKW_02</v>
       </c>
     </row>
-    <row r="51" spans="4:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:16" x14ac:dyDescent="0.45">
       <c r="D51" s="13" t="s">
         <v>17</v>
       </c>

--- a/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
+++ b/SuppXLS/Trades/ScenTrade_SUP_TRADE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TIMES models\TIMES-tom\SuppXLS\Trades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{223523C6-17EB-4DB5-AD24-E5A4621D776A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1AFD3F1-0CA3-430A-839C-43F17DA92B25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7164" yWindow="2004" windowWidth="30960" windowHeight="12204" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="23412" windowHeight="15888" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOG" sheetId="3" r:id="rId1"/>
@@ -1160,7 +1160,7 @@
   <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="T36" sqref="T36"/>
+      <selection activeCell="J9" sqref="J9:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3440,7 +3440,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6708D45-E573-4DB0-9E7B-7DC3BD947BD4}">
   <dimension ref="C2:AB44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U11" sqref="U11"/>
     </sheetView>
   </sheetViews>
@@ -4530,7 +4530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAD4FCC-23F0-4F3B-9CD2-8D3544B74DA5}">
   <dimension ref="C2:AA44"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -5627,7 +5627,7 @@
   <dimension ref="B2:V51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H45" sqref="H45"/>
+      <selection activeCell="V18" sqref="V18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5718,12 +5718,12 @@
       <c r="F4" s="13">
         <v>2030</v>
       </c>
-      <c r="I4">
-        <v>40</v>
+      <c r="I4" s="11">
+        <v>50</v>
       </c>
       <c r="K4">
         <f>I4</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P4" t="s">
         <v>68</v>
@@ -5737,12 +5737,12 @@
       <c r="F5" s="13">
         <v>2030</v>
       </c>
-      <c r="I5">
-        <v>0</v>
+      <c r="I5" s="13">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K15" si="0">I5</f>
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="P5" t="str">
         <f>P4</f>
@@ -5757,19 +5757,19 @@
       <c r="F6" s="13">
         <v>2030</v>
       </c>
-      <c r="I6">
-        <v>0</v>
+      <c r="I6" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="K6">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="P6" t="str">
         <f t="shared" ref="P6:P9" si="1">P5</f>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
     </row>
-    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D7" t="s">
         <v>67</v>
       </c>
@@ -5809,6 +5809,7 @@
         <f t="shared" si="1"/>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
+      <c r="U8" s="11"/>
     </row>
     <row r="9" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D9" s="13" t="s">
@@ -5829,6 +5830,7 @@
         <f t="shared" si="1"/>
         <v>TB_SUPCO2_DKISLBH_DKE_01</v>
       </c>
+      <c r="U9" s="13"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D10" s="11" t="s">
@@ -5839,15 +5841,16 @@
         <v>2030</v>
       </c>
       <c r="I10">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="K10">
         <f t="shared" si="0"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P10" t="s">
         <v>69</v>
       </c>
+      <c r="U10" s="13"/>
     </row>
     <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D11" s="17" t="s">
@@ -5858,16 +5861,17 @@
         <v>2030</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="K11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="P11" t="str">
         <f>P10</f>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
+      <c r="U11" s="13"/>
     </row>
     <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D12" s="17" t="s">
@@ -5878,16 +5882,17 @@
         <v>2030</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="K12">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="P12" t="str">
         <f t="shared" ref="P12:P15" si="2">P11</f>
         <v>TB_SUPCO2_DKISLBH_DKE_02</v>
       </c>
+      <c r="U12" s="14"/>
     </row>
     <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
@@ -5958,12 +5963,12 @@
       <c r="F16" s="13">
         <v>2030</v>
       </c>
-      <c r="J16">
-        <v>40</v>
+      <c r="J16" s="11">
+        <v>50</v>
       </c>
       <c r="L16">
         <f>J16</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P16" t="s">
         <v>70</v>
@@ -5977,12 +5982,12 @@
       <c r="F17" s="13">
         <v>2030</v>
       </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="J17" s="13">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="L17">
         <f t="shared" ref="L17:L27" si="3">J17</f>
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="P17" t="str">
         <f>P16</f>
@@ -5997,12 +6002,12 @@
       <c r="F18" s="13">
         <v>2030</v>
       </c>
-      <c r="J18">
-        <v>0</v>
+      <c r="J18" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="L18">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="P18" t="str">
         <f t="shared" ref="P18:P21" si="4">P17</f>
@@ -6079,11 +6084,11 @@
         <v>2030</v>
       </c>
       <c r="J22">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="L22">
         <f t="shared" si="3"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P22" t="s">
         <v>71</v>
@@ -6098,11 +6103,11 @@
         <v>2030</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="L23">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="P23" t="str">
         <f>P22</f>
@@ -6118,11 +6123,11 @@
         <v>2030</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="L24">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="P24" t="str">
         <f t="shared" ref="P24:P27" si="5">P23</f>
@@ -6198,12 +6203,12 @@
       <c r="F28" s="13">
         <v>2030</v>
       </c>
-      <c r="J28">
-        <v>40</v>
+      <c r="J28" s="11">
+        <v>50</v>
       </c>
       <c r="M28">
         <f>J28</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P28" t="s">
         <v>72</v>
@@ -6217,12 +6222,12 @@
       <c r="F29" s="13">
         <v>2030</v>
       </c>
-      <c r="J29">
-        <v>0</v>
+      <c r="J29" s="13">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="M29">
         <f t="shared" ref="M29:M39" si="6">J29</f>
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="P29" t="str">
         <f>P28</f>
@@ -6237,12 +6242,12 @@
       <c r="F30" s="13">
         <v>2030</v>
       </c>
-      <c r="J30">
-        <v>0</v>
+      <c r="J30" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="M30">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="P30" t="str">
         <f t="shared" ref="P30:P33" si="7">P29</f>
@@ -6319,11 +6324,11 @@
         <v>2030</v>
       </c>
       <c r="J34">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M34">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P34" t="s">
         <v>73</v>
@@ -6338,11 +6343,11 @@
         <v>2030</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="M35">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="P35" t="str">
         <f>P34</f>
@@ -6358,11 +6363,11 @@
         <v>2030</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="M36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="P36" t="str">
         <f t="shared" ref="P36:P39" si="8">P35</f>
@@ -6438,12 +6443,12 @@
       <c r="F40" s="13">
         <v>2030</v>
       </c>
-      <c r="J40">
-        <v>40</v>
+      <c r="J40" s="11">
+        <v>50</v>
       </c>
       <c r="N40">
         <f>J40</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P40" t="s">
         <v>74</v>
@@ -6457,12 +6462,12 @@
       <c r="F41" s="13">
         <v>2030</v>
       </c>
-      <c r="J41">
-        <v>0</v>
+      <c r="J41" s="13">
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="N41">
         <f t="shared" ref="N41:N51" si="9">J41</f>
-        <v>0</v>
+        <v>8.9499999999999996E-2</v>
       </c>
       <c r="P41" t="str">
         <f>P40</f>
@@ -6477,12 +6482,12 @@
       <c r="F42" s="13">
         <v>2030</v>
       </c>
-      <c r="J42">
-        <v>0</v>
+      <c r="J42" s="13">
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="N42">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>6.0000000000000002E-5</v>
       </c>
       <c r="P42" t="str">
         <f t="shared" ref="P42:P45" si="10">P41</f>
@@ -6559,11 +6564,11 @@
         <v>2030</v>
       </c>
       <c r="J46">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N46">
         <f t="shared" si="9"/>
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="P46" t="s">
         <v>75</v>
@@ -6578,11 +6583,11 @@
         <v>2030</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="N47">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3.1329000000000001E-3</v>
       </c>
       <c r="P47" t="str">
         <f>P46</f>
@@ -6598,11 +6603,11 @@
         <v>2030</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="N48">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1.5659999999999999E-5</v>
       </c>
       <c r="P48" t="str">
         <f t="shared" ref="P48:P51" si="11">P47</f>
